--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>index|索引</t>
   </si>
@@ -508,42 +508,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新年福利</t>
+    <t>yxfl_bg_1</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+  </si>
+  <si>
+    <t>天天领金币_cjj</t>
+  </si>
+  <si>
+    <t>act_xyxfl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新年福利_cjj</t>
+    <t>act_xyxfl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福利</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福利_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_khfl_044</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_khfl_044_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yxfl_bg_1</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1026,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1089,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1113,13 +1103,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
@@ -1156,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1177,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1211,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,8 +1288,8 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
-        <v>1000240</v>
+      <c r="B2" s="10">
+        <v>1000301</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>45</v>
@@ -1317,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1330,8 +1320,8 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
-        <v>1000241</v>
+      <c r="B3" s="10">
+        <v>1000302</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -1349,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1364,8 +1354,8 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>1000242</v>
+      <c r="B4" s="10">
+        <v>1000303</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>50</v>
@@ -1383,7 +1373,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1396,8 +1386,8 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
-        <v>1000243</v>
+      <c r="B5" s="10">
+        <v>1000304</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>53</v>
@@ -1415,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1428,8 +1418,8 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>1000244</v>
+      <c r="B6" s="10">
+        <v>1000305</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>50</v>
@@ -1447,7 +1437,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1460,8 +1450,8 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>1000245</v>
+      <c r="B7" s="10">
+        <v>1000306</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -1476,10 +1466,10 @@
         <v>49</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1493,8 +1483,8 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
-        <v>1000246</v>
+      <c r="B8" s="10">
+        <v>1000307</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
@@ -1512,15 +1502,15 @@
         <v>38</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
-        <v>1000247</v>
+      <c r="B9" s="10">
+        <v>1000308</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>58</v>
@@ -1538,15 +1528,15 @@
         <v>60</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
-        <v>1000248</v>
+      <c r="B10" s="10">
+        <v>1000309</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>61</v>
@@ -1564,15 +1554,15 @@
         <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
-        <v>1000249</v>
+      <c r="B11" s="10">
+        <v>1000310</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>63</v>
@@ -1597,8 +1587,8 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
-        <v>1000250</v>
+      <c r="B12" s="10">
+        <v>1000311</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>66</v>
@@ -1623,8 +1613,8 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
-        <v>1000251</v>
+      <c r="B13" s="10">
+        <v>1000312</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>69</v>
@@ -1649,8 +1639,8 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
-        <v>1000252</v>
+      <c r="B14" s="10">
+        <v>1000313</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>73</v>
@@ -1675,8 +1665,8 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
-        <v>1000253</v>
+      <c r="B15" s="10">
+        <v>1000314</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>76</v>
@@ -1701,8 +1691,8 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
-        <v>1000254</v>
+      <c r="B16" s="10">
+        <v>1000315</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>69</v>
@@ -1727,8 +1717,8 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
-        <v>1000255</v>
+      <c r="B17" s="10">
+        <v>1000316</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>78</v>
@@ -1753,8 +1743,8 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
-        <v>1000256</v>
+      <c r="B18" s="10">
+        <v>1000317</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>66</v>
@@ -1779,8 +1769,8 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
-        <v>1000257</v>
+      <c r="B19" s="10">
+        <v>1000318</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>80</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -522,17 +522,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>天天领金币</t>
-  </si>
-  <si>
-    <t>天天领金币_cjj</t>
-  </si>
-  <si>
     <t>act_xyxfl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>act_xyxfl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日福利需求_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1016,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,13 +1062,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1079,13 +1081,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1102,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1167,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1202,7 +1204,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>1000301</v>
+        <v>1000331</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>45</v>
@@ -1321,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>1000302</v>
+        <v>1000332</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -1355,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>1000303</v>
+        <v>1000333</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>50</v>
@@ -1387,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>1000304</v>
+        <v>1000334</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>53</v>
@@ -1419,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>1000305</v>
+        <v>1000335</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>50</v>
@@ -1451,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>1000306</v>
+        <v>1000336</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
@@ -1484,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>1000307</v>
+        <v>1000337</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
@@ -1510,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>1000308</v>
+        <v>1000338</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>58</v>
@@ -1536,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>1000309</v>
+        <v>1000339</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>61</v>
@@ -1562,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>1000310</v>
+        <v>1000340</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>63</v>
@@ -1588,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>1000311</v>
+        <v>1000341</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>66</v>
@@ -1614,7 +1616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>1000312</v>
+        <v>1000342</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>69</v>
@@ -1640,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>1000313</v>
+        <v>1000343</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>73</v>
@@ -1666,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>1000314</v>
+        <v>1000344</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>76</v>
@@ -1692,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>1000315</v>
+        <v>1000345</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>69</v>
@@ -1718,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>1000316</v>
+        <v>1000346</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>78</v>
@@ -1744,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>1000317</v>
+        <v>1000347</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>66</v>
@@ -1770,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>1000318</v>
+        <v>1000348</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>80</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>index|索引</t>
   </si>
@@ -237,18 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金80万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,10 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,10 +274,6 @@
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -409,10 +385,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -438,10 +410,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -463,10 +431,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -504,10 +468,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>yxfl_bg_1</t>
   </si>
   <si>
@@ -515,10 +475,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -536,6 +492,78 @@
   <si>
     <t>节日福利需求_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1081,13 +1109,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1104,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1148,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1169,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1203,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1242,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
@@ -1291,25 +1319,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>1000331</v>
+        <v>1000333</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1323,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>1000332</v>
+        <v>1000334</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -1335,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1357,13 +1385,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>1000333</v>
+        <v>1000335</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
@@ -1372,10 +1400,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1389,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>1000334</v>
+        <v>1000336</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1404,10 +1432,10 @@
         <v>37</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1421,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>1000335</v>
+        <v>1000337</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1436,10 +1464,10 @@
         <v>37</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1453,25 +1481,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>1000336</v>
+        <v>1000338</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>86</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1486,25 +1514,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>1000337</v>
+        <v>1000339</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1512,25 +1540,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>1000338</v>
+        <v>1000340</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1538,25 +1566,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>1000339</v>
+        <v>1000341</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1564,25 +1592,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>1000340</v>
+        <v>1000342</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1590,25 +1618,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>1000341</v>
+        <v>1000343</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1616,25 +1644,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>1000342</v>
+        <v>1000344</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1642,25 +1670,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>1000343</v>
+        <v>1000345</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1668,13 +1696,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>1000344</v>
+        <v>1000346</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -1683,10 +1711,10 @@
         <v>37</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1694,25 +1722,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>1000345</v>
+        <v>1000347</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1720,25 +1748,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>1000346</v>
+        <v>1000348</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1746,25 +1774,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>1000347</v>
+        <v>1000349</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1772,25 +1800,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>1000348</v>
+        <v>1000350</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>index|索引</t>
   </si>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金80万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -258,14 +254,6 @@
   </si>
   <si>
     <t>在3D捕鱼中使用3次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -360,10 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>8</t>
     </r>
@@ -406,10 +390,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -564,6 +544,9 @@
   <si>
     <t>20000,30</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi,"prop_fish_drop_act_0"</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1109,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1176,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1197,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1232,7 +1215,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,22 +1305,22 @@
         <v>1000333</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1363,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1388,22 +1371,22 @@
         <v>1000335</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1420,22 +1403,22 @@
         <v>1000336</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1452,22 +1435,22 @@
         <v>1000337</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1487,19 +1470,19 @@
         <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1520,19 +1503,19 @@
         <v>34</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1543,22 +1526,22 @@
         <v>1000340</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1569,22 +1552,22 @@
         <v>1000341</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1595,22 +1578,22 @@
         <v>1000342</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1621,22 +1604,22 @@
         <v>1000343</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1647,22 +1630,22 @@
         <v>1000344</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1673,22 +1656,22 @@
         <v>1000345</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1699,22 +1682,22 @@
         <v>1000346</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1725,22 +1708,22 @@
         <v>1000347</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1751,22 +1734,22 @@
         <v>1000348</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1777,22 +1760,22 @@
         <v>1000349</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,22 +1786,22 @@
         <v>1000350</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>index|索引</t>
   </si>
@@ -546,7 +546,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi,"prop_fish_drop_act_0"</t>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1587,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>77</v>
@@ -1613,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>85</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
   <si>
     <t>index|索引</t>
   </si>
@@ -186,44 +186,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>total|达成条件 
 (任务进度条）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用3次超级火力卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"game_MiniGame",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中使用3次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -265,17 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得50福利券</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金60万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,54 +245,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼深海探险当前层数+5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得150福利券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金30万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_fish_drop_act_0"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5000,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -340,46 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10000,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -388,14 +277,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -409,18 +290,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sxlgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -514,8 +383,144 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_cjj</t>
+  </si>
+  <si>
+    <t>限时返利--v4_cjj</t>
+  </si>
+  <si>
+    <t>30,31,32,33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,35,36,37,38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_normal</t>
+  </si>
+  <si>
+    <t>限时返利--v4_normal</t>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,150,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,300,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,3888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L","金龙鱼大米2袋"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的电饭锅","智能电磁炉"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"美的多功能锅"</t>
+      <t>1088888,</t>
     </r>
     <r>
       <rPr>
@@ -526,84 +531,124 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"美的电烤箱"</t>
+      <t>300,5</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金龙鱼油","飞科剃须刀"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励二选一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>188888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>388888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl</t>
+    <t>2088888,888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>act_lgfl_v4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4088888,</t>
+    <t>在3D捕鱼中使用1次双倍奖励卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀红包鱼累计获得100福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得100话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips|提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -615,24 +660,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2088888,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"琥珀核桃500g"</t>
-    </r>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -640,7 +684,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"琥珀核桃500g",</t>
+    <t>"耗牛肉酱",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +697,14 @@
   </si>
   <si>
     <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,16 +903,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -888,6 +930,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,18 +1213,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
@@ -1212,16 +1258,16 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
       <c r="F2" s="6"/>
@@ -1231,14 +1277,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>51</v>
+      <c r="B3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1248,16 +1294,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="E4" s="25">
         <v>3</v>
       </c>
     </row>
@@ -1265,17 +1311,51 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="35">
-        <v>4</v>
+      <c r="E6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1287,16 +1367,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
@@ -1332,84 +1412,126 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19" t="s">
-        <v>88</v>
+      <c r="B2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="23" t="s">
-        <v>122</v>
+      <c r="F3" s="29"/>
+      <c r="G3" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36" t="s">
-        <v>92</v>
+      <c r="B4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>93</v>
+      <c r="B5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,23 +1556,23 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="1"/>
+    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1476,862 +1598,1171 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1000364</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="32">
+        <v>1000415</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
+      <c r="I2" s="23"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1000365</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="10"/>
+      <c r="B3" s="32">
+        <v>1000416</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="23"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
       <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>1000366</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="B4" s="32">
+        <v>1000417</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="23"/>
       <c r="J4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13"/>
-      <c r="Q4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="13"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1000367</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="B5" s="32">
+        <v>1000418</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="23"/>
       <c r="J5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
-      <c r="Q5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1000368</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="32">
+        <v>1000419</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="10"/>
+      <c r="H6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="23"/>
       <c r="J6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>1000369</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="B7" s="32">
+        <v>1000420</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000370</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="32">
+        <v>1000421</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>1000371</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="32">
+        <v>1000422</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>1000372</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="32">
+        <v>1000423</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>1000373</v>
-      </c>
-      <c r="C11" s="30">
-        <v>150</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="32">
+        <v>1000424</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>1000374</v>
+      <c r="B12" s="32">
+        <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>1000375</v>
+      <c r="B13" s="32">
+        <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
-        <v>1000376</v>
+      <c r="B14" s="32">
+        <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
-        <v>1000377</v>
+      <c r="B15" s="32">
+        <v>1000428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>1000378</v>
+      <c r="B16" s="32">
+        <v>1000429</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>1000379</v>
+      <c r="B17" s="32">
+        <v>1000430</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>1000380</v>
+      <c r="B18" s="32">
+        <v>1000431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
-        <v>1000381</v>
+      <c r="B19" s="32">
+        <v>1000432</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
-        <v>1000382</v>
+      <c r="B20" s="32">
+        <v>1000433</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
-        <v>1000383</v>
+      <c r="B21" s="32">
+        <v>1000434</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1000397</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1000398</v>
+      </c>
+      <c r="C23" s="32">
+        <v>3</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1000399</v>
+      </c>
+      <c r="C24" s="32">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1000400</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1000401</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="L26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32">
+        <v>1000402</v>
+      </c>
+      <c r="C27" s="32">
+        <v>3</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="H27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="L27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1000403</v>
+      </c>
+      <c r="C28" s="32">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000404</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1000405</v>
+      </c>
+      <c r="C30" s="32">
+        <v>3</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1000406</v>
+      </c>
+      <c r="C31" s="32">
+        <v>3</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1000407</v>
+      </c>
+      <c r="C32" s="32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1000408</v>
+      </c>
+      <c r="C33" s="32">
+        <v>3</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32">
+        <v>1000409</v>
+      </c>
+      <c r="C34" s="32">
+        <v>3</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1000410</v>
+      </c>
+      <c r="C35" s="32">
+        <v>3</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="L35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32">
+        <v>1000411</v>
+      </c>
+      <c r="C36" s="32">
+        <v>3</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="L36" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32">
+        <v>1000412</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="L37" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>1000387</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B38" s="32">
+        <v>1000413</v>
+      </c>
+      <c r="C38" s="32">
         <v>3</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="42">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="41">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42">
-        <v>1000388</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="D38" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1000414</v>
+      </c>
+      <c r="C39" s="32">
         <v>3</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="42">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="41">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <v>1000389</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="42">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42">
-        <v>1000390</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="42">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="41">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42">
-        <v>1000391</v>
-      </c>
-      <c r="C26" s="42">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="40" t="s">
+      <c r="D39" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="41">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>1000392</v>
-      </c>
-      <c r="C27" s="42">
-        <v>3</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="42">
-        <v>1</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="41">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
-        <v>1000393</v>
-      </c>
-      <c r="C28" s="42">
-        <v>3</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="42">
-        <v>1</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
-        <v>1000394</v>
-      </c>
-      <c r="C29" s="42">
-        <v>3</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="42">
-        <v>1</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="41">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>1000395</v>
-      </c>
-      <c r="C30" s="42">
-        <v>3</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="42">
-        <v>1</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
+      <c r="H39" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>1000363</v>
+        <v>1000364</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>38</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>1000364</v>
+        <v>1000365</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>31</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>1000365</v>
+        <v>1000366</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>42</v>
@@ -1597,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>1000366</v>
+        <v>1000367</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>68</v>
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>1000367</v>
+        <v>1000368</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>69</v>
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>1000368</v>
+        <v>1000369</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>31</v>
@@ -1694,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9">
-        <v>1000369</v>
+        <v>1000370</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>32</v>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9">
-        <v>1000370</v>
+        <v>1000371</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>40</v>
@@ -1746,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9">
-        <v>1000371</v>
+        <v>1000372</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>71</v>
@@ -1772,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9">
-        <v>1000372</v>
+        <v>1000373</v>
       </c>
       <c r="C11" s="30">
         <v>150</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9">
-        <v>1000373</v>
+        <v>1000374</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>69</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>1000374</v>
+        <v>1000375</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>42</v>
@@ -1850,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>1000375</v>
+        <v>1000376</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>88</v>
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9">
-        <v>1000376</v>
+        <v>1000377</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>69</v>
@@ -1902,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9">
-        <v>1000377</v>
+        <v>1000378</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>89</v>
@@ -1928,7 +1928,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>1000378</v>
+        <v>1000379</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>90</v>
@@ -1954,7 +1954,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9">
-        <v>1000379</v>
+        <v>1000380</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>91</v>
@@ -1980,7 +1980,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9">
-        <v>1000380</v>
+        <v>1000381</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>92</v>
@@ -2006,7 +2006,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9">
-        <v>1000381</v>
+        <v>1000382</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
@@ -2032,7 +2032,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9">
-        <v>1000382</v>
+        <v>1000383</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="42">
-        <v>1000386</v>
+        <v>1000387</v>
       </c>
       <c r="C22" s="42">
         <v>3</v>
@@ -2084,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="42">
-        <v>1000387</v>
+        <v>1000388</v>
       </c>
       <c r="C23" s="42">
         <v>3</v>
@@ -2110,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="42">
-        <v>1000388</v>
+        <v>1000389</v>
       </c>
       <c r="C24" s="42">
         <v>3</v>
@@ -2136,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="42">
-        <v>1000389</v>
+        <v>1000390</v>
       </c>
       <c r="C25" s="42">
         <v>3</v>
@@ -2162,7 +2162,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="42">
-        <v>1000390</v>
+        <v>1000391</v>
       </c>
       <c r="C26" s="42">
         <v>3</v>
@@ -2197,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="42">
-        <v>1000391</v>
+        <v>1000392</v>
       </c>
       <c r="C27" s="42">
         <v>3</v>
@@ -2232,7 +2232,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="42">
-        <v>1000392</v>
+        <v>1000393</v>
       </c>
       <c r="C28" s="42">
         <v>3</v>
@@ -2263,7 +2263,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="42">
-        <v>1000393</v>
+        <v>1000394</v>
       </c>
       <c r="C29" s="42">
         <v>3</v>
@@ -2291,7 +2291,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="42">
-        <v>1000394</v>
+        <v>1000395</v>
       </c>
       <c r="C30" s="42">
         <v>3</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
   <si>
     <t>index|索引</t>
   </si>
@@ -705,6 +705,14 @@
   </si>
   <si>
     <t>2088888,1988,"耗牛肉酱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1545,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1855,7 +1863,7 @@
         <v>128</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1882,7 +1890,7 @@
         <v>127</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1909,7 +1917,7 @@
         <v>129</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1936,7 +1944,7 @@
         <v>127</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1963,7 +1971,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="I12" s="18"/>
     </row>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="132">
   <si>
     <t>index|索引</t>
   </si>
@@ -312,14 +312,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除2次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -641,6 +633,18 @@
       </rPr>
       <t>"琥珀核桃500g"</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1237,13 +1241,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="35">
         <v>3</v>
@@ -1254,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="35">
         <v>4</v>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1363,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -1376,7 +1380,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1384,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="35">
         <v>1</v>
@@ -1397,7 +1401,7 @@
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1416,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>45</v>
@@ -1543,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>45</v>
@@ -1577,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>74</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>44</v>
@@ -1600,7 +1604,7 @@
         <v>1000367</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>61</v>
@@ -1609,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>44</v>
@@ -1632,7 +1636,7 @@
         <v>1000368</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>52</v>
@@ -1641,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>44</v>
@@ -1673,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>44</v>
@@ -1706,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>44</v>
@@ -1732,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>44</v>
@@ -1749,19 +1753,19 @@
         <v>1000372</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>44</v>
@@ -1784,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>44</v>
@@ -1801,19 +1805,19 @@
         <v>1000374</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>36</v>
@@ -1827,19 +1831,19 @@
         <v>1000375</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>37</v>
@@ -1853,7 +1857,7 @@
         <v>1000376</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>54</v>
@@ -1862,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>37</v>
@@ -1879,19 +1883,19 @@
         <v>1000377</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>36</v>
@@ -1905,7 +1909,7 @@
         <v>1000378</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>55</v>
@@ -1914,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>37</v>
@@ -1931,7 +1935,7 @@
         <v>1000379</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>56</v>
@@ -1940,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>37</v>
@@ -1957,19 +1961,19 @@
         <v>1000380</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>37</v>
@@ -1983,7 +1987,7 @@
         <v>1000381</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>57</v>
@@ -1992,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>37</v>
@@ -2018,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>37</v>
@@ -2044,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>37</v>
@@ -2064,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="42">
         <v>1</v>
@@ -2073,10 +2077,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2090,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="42">
         <v>1</v>
@@ -2099,10 +2103,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -2116,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="42">
         <v>1</v>
@@ -2125,10 +2129,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2142,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="42">
         <v>1</v>
@@ -2151,10 +2155,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -2168,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="42">
         <v>1</v>
@@ -2177,19 +2181,19 @@
         <v>35</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="N26" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="N26" s="40" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2203,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" s="42">
         <v>1</v>
@@ -2212,19 +2216,19 @@
         <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K27" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="40" t="s">
-        <v>111</v>
-      </c>
       <c r="N27" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2238,24 +2242,24 @@
         <v>3</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="42">
         <v>1</v>
       </c>
       <c r="F28" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="40" t="s">
-        <v>130</v>
-      </c>
       <c r="H28" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
       <c r="N28" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2269,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="42">
         <v>1</v>
@@ -2278,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
@@ -2297,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E30" s="42">
         <v>1</v>
@@ -2306,10 +2310,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
   <si>
     <t>index|索引</t>
   </si>
@@ -619,6 +619,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>2088888,</t>
     </r>
@@ -636,15 +648,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
+    <t>"swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1415,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1831,10 +1839,10 @@
         <v>1000375</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2251,13 +2259,19 @@
         <v>126</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H28" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>133</v>
+      </c>
       <c r="N28" s="40" t="s">
         <v>111</v>
       </c>
@@ -2287,8 +2301,8 @@
       <c r="H29" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="41">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -276,14 +276,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中累计召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计召唤出4个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金60万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -309,10 +301,6 @@
   </si>
   <si>
     <t>在3D捕鱼中通过击杀红包鱼累计获得150福利券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +641,18 @@
   </si>
   <si>
     <t>"琥珀核桃500g",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4次英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1249,13 +1249,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="35">
         <v>3</v>
@@ -1266,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="35">
         <v>4</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="35">
         <v>1</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>45</v>
@@ -1555,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>45</v>
@@ -1583,16 +1583,16 @@
         <v>42</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>44</v>
@@ -1612,19 +1612,19 @@
         <v>1000367</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>44</v>
@@ -1644,7 +1644,7 @@
         <v>1000368</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>52</v>
@@ -1653,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>44</v>
@@ -1679,16 +1679,16 @@
         <v>31</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>44</v>
@@ -1718,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>44</v>
@@ -1738,16 +1738,16 @@
         <v>40</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="30">
         <v>1</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>44</v>
@@ -1761,19 +1761,19 @@
         <v>1000372</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>44</v>
@@ -1796,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>44</v>
@@ -1816,16 +1816,16 @@
         <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>36</v>
@@ -1839,19 +1839,19 @@
         <v>1000375</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>37</v>
@@ -1865,7 +1865,7 @@
         <v>1000376</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>54</v>
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>37</v>
@@ -1891,19 +1891,19 @@
         <v>1000377</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>36</v>
@@ -1917,19 +1917,19 @@
         <v>1000378</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>37</v>
@@ -1943,19 +1943,19 @@
         <v>1000379</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>37</v>
@@ -1969,19 +1969,19 @@
         <v>1000380</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>37</v>
@@ -1995,19 +1995,19 @@
         <v>1000381</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>37</v>
@@ -2024,16 +2024,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>37</v>
@@ -2050,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>37</v>
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E22" s="42">
         <v>1</v>
@@ -2085,10 +2085,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E23" s="42">
         <v>1</v>
@@ -2111,10 +2111,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="42">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         <v>35</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2154,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="42">
         <v>1</v>
@@ -2163,10 +2163,10 @@
         <v>35</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" s="42">
         <v>1</v>
@@ -2189,19 +2189,19 @@
         <v>35</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K26" s="42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N26" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="42">
         <v>1</v>
@@ -2224,19 +2224,19 @@
         <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="40" t="s">
         <v>107</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -2250,30 +2250,30 @@
         <v>3</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" s="42">
         <v>1</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L28" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N28" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E29" s="42">
         <v>1</v>
@@ -2296,10 +2296,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2315,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="42">
         <v>1</v>
@@ -2324,10 +2324,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
   <si>
     <t>index|索引</t>
   </si>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>188888,50,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -488,23 +484,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>8888888,8888</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4088888,3888</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -529,10 +513,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>188888,50,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -665,10 +645,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -719,6 +695,21 @@
   <si>
     <t>lgfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_icon","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1303,7 +1294,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1317,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>84</v>
@@ -1567,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1569,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
@@ -1620,7 +1611,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1664,7 +1655,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1673,7 +1664,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1697,7 +1688,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1729,7 +1720,7 @@
         <v>1000441</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1741,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1762,10 +1753,10 @@
         <v>1000442</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1795,10 +1786,10 @@
         <v>1000443</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1831,7 +1822,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1840,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1862,10 +1853,10 @@
         <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1874,10 +1865,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1892,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1901,10 +1892,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1916,7 +1907,7 @@
         <v>1000447</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1928,10 +1919,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1946,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1955,10 +1946,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1970,10 +1961,10 @@
         <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1985,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1997,10 +1988,10 @@
         <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2009,7 +2000,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2024,10 +2015,10 @@
         <v>1000451</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2036,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2054,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2063,7 +2054,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2081,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2090,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2108,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2117,7 +2108,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2216,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2249,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>73</v>
@@ -2276,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>74</v>
@@ -2303,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>73</v>
@@ -2330,10 +2321,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>74</v>
@@ -2357,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>74</v>
@@ -2370,7 +2361,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2393,10 +2384,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>75</v>
@@ -2406,7 +2397,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2429,10 +2420,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
@@ -2441,10 +2432,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2465,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>76</v>
@@ -2494,10 +2485,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>72</v>
@@ -2521,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2550,16 +2541,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2579,16 +2570,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2608,16 +2599,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2637,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
@@ -2650,7 +2641,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2673,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
@@ -2686,7 +2677,7 @@
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2709,20 +2700,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2742,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2771,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -697,19 +697,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_icon","prop_fish_drop_act_0"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","swjl_5",</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_icon","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
   </si>
 </sst>
 </file>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
   <si>
     <t>index|索引</t>
   </si>
@@ -704,10 +704,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -745,6 +741,10 @@
   </si>
   <si>
     <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除2次孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2028,7 @@
         <v>129</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2315,7 +2315,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2344,7 +2344,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2373,7 +2373,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2402,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
@@ -2440,7 +2440,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
@@ -2478,7 +2478,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2516,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2547,7 +2547,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2576,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2605,7 +2605,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2634,7 +2634,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2663,7 +2663,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2692,7 +2692,7 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
@@ -2730,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
@@ -2768,7 +2768,7 @@
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>131</v>
@@ -2803,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2832,7 +2832,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="154">
   <si>
     <t>index|索引</t>
   </si>
@@ -621,10 +621,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除6个孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -637,10 +633,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -709,6 +701,18 @@
   </si>
   <si>
     <t>在水浒消消乐中召唤出4个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1279,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1294,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1558,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1853,10 +1857,10 @@
         <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1868,7 +1872,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1895,7 +1899,7 @@
         <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1922,7 +1926,7 @@
         <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1949,7 +1953,7 @@
         <v>119</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1961,10 +1965,10 @@
         <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1976,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1988,10 +1992,10 @@
         <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2045,7 +2049,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2072,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2099,7 +2103,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2240,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>94</v>
@@ -2267,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>96</v>
@@ -2294,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>95</v>
@@ -2321,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -2348,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>98</v>
@@ -2361,7 +2365,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2384,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>99</v>
@@ -2397,7 +2401,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2420,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
@@ -2432,10 +2436,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2456,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>101</v>
@@ -2485,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>100</v>
@@ -2512,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>102</v>
@@ -2541,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>103</v>
@@ -2570,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>95</v>
@@ -2599,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -2628,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>98</v>
@@ -2641,7 +2645,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2664,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>99</v>
@@ -2677,7 +2681,7 @@
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2700,20 +2704,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2733,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>101</v>
@@ -2762,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>100</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="162">
   <si>
     <t>index|索引</t>
   </si>
@@ -617,14 +617,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -713,6 +705,46 @@
   </si>
   <si>
     <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1298,7 +1330,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1562,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1575,7 +1607,8 @@
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="76.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
@@ -1857,10 +1890,10 @@
         <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1872,7 +1905,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1899,7 +1932,7 @@
         <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1926,7 +1959,7 @@
         <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1953,7 +1986,7 @@
         <v>119</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1965,10 +1998,10 @@
         <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1980,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1992,10 +2025,10 @@
         <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2049,7 +2082,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2076,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2103,7 +2136,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2244,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>94</v>
@@ -2252,7 +2285,9 @@
       <c r="H22" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
@@ -2271,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>96</v>
@@ -2279,7 +2314,9 @@
       <c r="H23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
@@ -2298,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>95</v>
@@ -2306,7 +2343,9 @@
       <c r="H24" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="31" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
@@ -2325,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -2333,7 +2372,9 @@
       <c r="H25" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
@@ -2352,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>98</v>
@@ -2360,12 +2401,14 @@
       <c r="H26" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2388,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>99</v>
@@ -2396,12 +2439,14 @@
       <c r="H27" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2424,22 +2469,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2460,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>101</v>
@@ -2468,7 +2515,9 @@
       <c r="H29" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
@@ -2489,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>100</v>
@@ -2497,7 +2546,9 @@
       <c r="H30" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
@@ -2516,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>102</v>
@@ -2525,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2545,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>103</v>
@@ -2554,7 +2605,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2574,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>95</v>
@@ -2583,7 +2634,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2603,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -2612,7 +2663,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2632,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>98</v>
@@ -2640,12 +2691,14 @@
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="31"/>
+      <c r="I35" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2668,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>99</v>
@@ -2676,12 +2729,14 @@
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="31"/>
+      <c r="I36" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2704,20 +2759,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="31"/>
+      <c r="I37" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="L37" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2737,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>101</v>
@@ -2746,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2766,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>100</v>
@@ -2775,7 +2832,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
   <si>
     <t>index|索引</t>
   </si>
@@ -428,14 +428,6 @@
     <t>限时返利--v4_normal</t>
   </si>
   <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>act_lgfl_v4_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -468,15 +460,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>188888,50,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>588888,150,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>388888,100,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -617,10 +601,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在水浒消消乐中召唤出1次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -629,59 +649,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"酥脆猴菇饼干"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"酥脆猴菇饼干"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"酥脆猴菇饼干",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"酥脆猴菇饼干",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"智能多功能锅/","小米运动手环"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"三只松鼠礼盒","进口橄榄油"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgfl_bg_1</t>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"核桃早餐奶8盒",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"核桃早餐奶8盒",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小米蓝牙耳机/","家用电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"奥克斯煮蛋器","金龙鱼油"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"核桃早餐奶8盒"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"核桃早餐奶8盒"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_banner_2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>ltfl_bg_1</t>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ltfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
@@ -696,59 +713,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。",""</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,6 +993,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1269,7 +1277,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1289,7 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,7 +1324,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1334,7 +1343,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1348,13 +1357,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1365,13 +1374,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1382,13 +1391,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1399,13 +1408,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1423,7 +1432,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1598,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1612,7 +1621,7 @@
     <col min="6" max="6" width="61.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="76.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="86.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
@@ -1652,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1690,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="36">
-        <v>1000439</v>
+        <v>1000480</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1705,7 +1714,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1723,13 +1732,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="36">
-        <v>1000440</v>
+        <v>1000481</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1758,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="36">
-        <v>1000441</v>
+        <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1773,7 +1782,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1791,13 +1800,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36">
-        <v>1000442</v>
+        <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1824,13 +1833,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36">
-        <v>1000443</v>
+        <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1857,13 +1866,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36">
-        <v>1000444</v>
+        <v>1000485</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1872,7 +1881,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1891,13 +1900,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="36">
-        <v>1000445</v>
+        <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1906,10 +1915,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1918,13 +1927,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="36">
-        <v>1000446</v>
+        <v>1000487</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1933,10 +1942,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1945,10 +1954,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="36">
-        <v>1000447</v>
+        <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1960,10 +1969,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1972,13 +1981,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="36">
-        <v>1000448</v>
+        <v>1000489</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1987,10 +1996,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1999,13 +2008,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="36">
-        <v>1000449</v>
+        <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -2017,7 +2026,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2026,13 +2035,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="36">
-        <v>1000450</v>
+        <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2041,7 +2050,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2053,13 +2062,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="36">
-        <v>1000451</v>
+        <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2068,7 +2077,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2080,13 +2089,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="36">
-        <v>1000452</v>
+        <v>1000493</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2095,7 +2104,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2107,13 +2116,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="36">
-        <v>1000453</v>
+        <v>1000494</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2122,7 +2131,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2134,13 +2143,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="36">
-        <v>1000454</v>
+        <v>1000495</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2149,7 +2158,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2161,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="36">
-        <v>1000455</v>
+        <v>1000496</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>55</v>
@@ -2173,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>51</v>
@@ -2188,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="36">
-        <v>1000456</v>
+        <v>1000497</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>56</v>
@@ -2215,7 +2224,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="36">
-        <v>1000457</v>
+        <v>1000498</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
@@ -2242,13 +2251,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="36">
-        <v>1000458</v>
+        <v>1000499</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2269,7 +2278,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="36">
-        <v>1000459</v>
+        <v>1000500</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
@@ -2281,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2298,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="36">
-        <v>1000460</v>
+        <v>1000501</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
@@ -2313,13 +2322,13 @@
         <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2327,7 +2336,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="36">
-        <v>1000461</v>
+        <v>1000502</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
@@ -2339,16 +2348,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2356,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="36">
-        <v>1000462</v>
+        <v>1000503</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2368,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2385,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="36">
-        <v>1000463</v>
+        <v>1000504</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -2397,22 +2406,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2423,7 +2432,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="36">
-        <v>1000464</v>
+        <v>1000505</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
@@ -2435,22 +2444,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2461,7 +2470,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="36">
-        <v>1000465</v>
+        <v>1000506</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
@@ -2473,24 +2482,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2499,7 +2508,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="36">
-        <v>1000466</v>
+        <v>1000507</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
@@ -2511,16 +2520,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2530,7 +2539,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="36">
-        <v>1000467</v>
+        <v>1000508</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
@@ -2542,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2559,7 +2568,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="36">
-        <v>1000468</v>
+        <v>1000509</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -2571,16 +2580,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>146</v>
+      <c r="I31" s="37" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2588,7 +2597,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="36">
-        <v>1000469</v>
+        <v>1000510</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
@@ -2600,16 +2609,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>146</v>
+      <c r="I32" s="37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2617,7 +2626,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="36">
-        <v>1000470</v>
+        <v>1000511</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
@@ -2629,16 +2638,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>146</v>
+      <c r="I33" s="37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2646,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36">
-        <v>1000471</v>
+        <v>1000512</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2658,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>146</v>
+      <c r="I34" s="37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2675,7 +2684,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="36">
-        <v>1000472</v>
+        <v>1000513</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
@@ -2687,22 +2696,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2713,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="36">
-        <v>1000473</v>
+        <v>1000514</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
@@ -2725,22 +2734,22 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2751,7 +2760,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="36">
-        <v>1000474</v>
+        <v>1000515</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
@@ -2763,22 +2772,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2786,7 +2795,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="36">
-        <v>1000475</v>
+        <v>1000516</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
@@ -2798,16 +2807,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2815,7 +2824,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="36">
-        <v>1000476</v>
+        <v>1000517</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
@@ -2827,16 +2836,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -649,18 +649,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中召唤出1次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -710,6 +698,18 @@
   </si>
   <si>
     <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1294,7 +1294,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1868,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1895,7 +1895,7 @@
         <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1922,7 +1922,7 @@
         <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1949,7 +1949,7 @@
         <v>119</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1976,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2045,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2099,7 +2099,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>94</v>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>96</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>95</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>98</v>
@@ -2361,7 +2361,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>99</v>
@@ -2397,7 +2397,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2420,10 +2420,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
@@ -2435,7 +2435,7 @@
         <v>135</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>101</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>100</v>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>102</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>103</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>95</v>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>98</v>
@@ -2641,7 +2641,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>99</v>
@@ -2677,7 +2677,7 @@
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2700,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
@@ -2713,7 +2713,7 @@
         <v>135</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>101</v>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>100</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>index|索引</t>
   </si>
@@ -701,50 +701,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"小游戏币：可在小游戏中使用。",""</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"小游戏币：可在小游戏中使用。",""</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -755,6 +715,9 @@
   <si>
     <t>"小游戏币：可在小游戏中使用。",""</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","福气：用于参加祈福达人排行榜。","请在苹果大战中使用"</t>
   </si>
 </sst>
 </file>
@@ -1607,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2328,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2357,7 +2320,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2386,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2415,7 +2378,7 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
@@ -2453,7 +2416,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
@@ -2491,7 +2454,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2529,7 +2492,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2560,7 +2523,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2589,7 +2552,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2618,7 +2581,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2647,7 +2610,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2676,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2705,7 +2668,7 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
@@ -2743,7 +2706,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
@@ -2781,7 +2744,7 @@
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>130</v>
@@ -2816,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2845,7 +2808,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
   <si>
     <t>index|索引</t>
   </si>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用1次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -717,7 +713,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"小游戏币：可在小游戏中使用。","福气：用于参加祈福达人排行榜。","请在苹果大战中使用"</t>
+    <t>在3D捕鱼中使用1次狂暴卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,9 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1287,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1306,7 +1324,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1323,7 +1341,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1340,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1357,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1374,7 +1392,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1570,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1668,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1677,7 +1695,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1701,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1733,7 +1751,7 @@
         <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1745,7 +1763,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1766,10 +1784,10 @@
         <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1799,10 +1817,10 @@
         <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1835,7 +1853,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1844,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1866,10 +1884,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1878,10 +1896,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1896,7 +1914,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1905,10 +1923,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1920,7 +1938,7 @@
         <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1932,10 +1950,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1950,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1959,10 +1977,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1974,10 +1992,10 @@
         <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1989,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2001,10 +2019,10 @@
         <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2013,7 +2031,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2028,10 +2046,10 @@
         <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2040,7 +2058,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2058,7 +2076,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2067,7 +2085,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2085,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2094,7 +2112,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2112,7 +2130,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2121,7 +2139,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2220,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2253,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2311,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2340,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2369,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2378,13 +2396,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2407,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>95</v>
@@ -2416,13 +2434,13 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2445,24 +2463,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2483,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2492,7 +2510,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2514,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2523,7 +2541,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2543,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2551,8 +2569,8 @@
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="37" t="s">
-        <v>154</v>
+      <c r="I31" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2572,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2580,8 +2598,8 @@
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="37" t="s">
-        <v>154</v>
+      <c r="I32" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2601,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2609,8 +2627,8 @@
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="37" t="s">
-        <v>154</v>
+      <c r="I33" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2630,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2638,8 +2656,8 @@
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="37" t="s">
-        <v>154</v>
+      <c r="I34" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2659,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>94</v>
@@ -2668,13 +2686,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2697,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>95</v>
@@ -2706,13 +2724,13 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2735,22 +2753,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2770,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2779,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2799,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2808,7 +2826,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -613,27 +613,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2次英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4次英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -738,6 +722,22 @@
   </si>
   <si>
     <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1305,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1324,7 +1324,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1341,7 +1341,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1358,7 +1358,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1375,7 +1375,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1392,7 +1392,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1686,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1884,10 +1884,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>115</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1926,7 +1926,7 @@
         <v>114</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1953,7 +1953,7 @@
         <v>116</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1980,7 +1980,7 @@
         <v>114</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -2007,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2076,7 +2076,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2280,7 +2280,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2309,7 +2309,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2329,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2338,7 +2338,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2367,7 +2367,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2396,13 +2396,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>95</v>
@@ -2434,13 +2434,13 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2463,24 +2463,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2510,7 +2510,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2541,7 +2541,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2570,7 +2570,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2599,7 +2599,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2628,7 +2628,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2657,7 +2657,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>94</v>
@@ -2686,13 +2686,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>95</v>
@@ -2724,13 +2724,13 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2753,22 +2753,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2797,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2826,7 +2826,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>index|索引</t>
   </si>
@@ -509,6 +509,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>在3D捕鱼中使用1次双倍奖励卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>在3D捕鱼深海探险当前层数+2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -613,6 +617,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -621,6 +629,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在水浒消消乐中召唤出1次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -629,32 +649,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0"</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","swjl_5",</t>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-  </si>
-  <si>
-    <t>"核桃早餐奶8盒",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"核桃早餐奶8盒",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小米蓝牙耳机/","家用电烤箱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"奥克斯煮蛋器","金龙鱼油"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -670,75 +665,61 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ltfl_bg_1</t>
-  </si>
-  <si>
-    <t>ltfl_bg_1</t>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中使用1次狂暴卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"小游戏币：可在小游戏中使用。","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_tiny_game_coin","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出4个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -824,7 +805,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +853,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -904,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,6 +963,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1298,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1324,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1341,7 +1334,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1358,7 +1351,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1375,7 +1368,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1392,7 +1385,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1413,7 +1406,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1452,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="28">
         <v>1</v>
@@ -1480,7 +1473,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="28">
         <v>1</v>
@@ -1588,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1642,7 +1635,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1686,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1695,7 +1688,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>37</v>
@@ -1719,7 +1712,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1751,7 +1744,7 @@
         <v>1000482</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>46</v>
@@ -1763,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>36</v>
@@ -1784,10 +1777,10 @@
         <v>1000483</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1817,10 +1810,10 @@
         <v>1000484</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1853,7 +1846,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1862,7 +1855,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>36</v>
@@ -1884,10 +1877,10 @@
         <v>1000486</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1896,10 +1889,10 @@
         <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1914,7 +1907,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1923,10 +1916,10 @@
         <v>49</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1938,7 +1931,7 @@
         <v>1000488</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>45</v>
@@ -1950,10 +1943,10 @@
         <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1968,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1977,10 +1970,10 @@
         <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1992,10 +1985,10 @@
         <v>1000490</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -2007,7 +2000,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2019,10 +2012,10 @@
         <v>1000491</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2031,7 +2024,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2046,10 +2039,10 @@
         <v>1000492</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2058,7 +2051,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2076,7 +2069,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2085,7 +2078,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2103,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2112,7 +2105,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2130,7 +2123,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2139,7 +2132,7 @@
         <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2238,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2258,8 +2251,8 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
-        <v>1000500</v>
+      <c r="B22" s="38">
+        <v>1000519</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
@@ -2271,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2280,15 +2273,15 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
-        <v>1000501</v>
+      <c r="B23" s="38">
+        <v>1000520</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
@@ -2300,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2309,15 +2302,15 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
-        <v>1000502</v>
+      <c r="B24" s="38">
+        <v>1000521</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
@@ -2329,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2338,15 +2331,15 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
-        <v>1000503</v>
+      <c r="B25" s="38">
+        <v>1000522</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2358,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2367,15 +2360,15 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
-        <v>1000504</v>
+      <c r="B26" s="38">
+        <v>1000523</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -2387,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>94</v>
@@ -2402,7 +2395,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2412,8 +2405,8 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
-        <v>1000505</v>
+      <c r="B27" s="38">
+        <v>1000524</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
@@ -2425,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>95</v>
@@ -2434,13 +2427,13 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2450,8 +2443,8 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
-        <v>1000506</v>
+      <c r="B28" s="38">
+        <v>1000525</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
@@ -2463,24 +2456,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2488,8 +2481,8 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
-        <v>1000507</v>
+      <c r="B29" s="38">
+        <v>1000526</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
@@ -2501,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2510,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2519,8 +2512,8 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
-        <v>1000508</v>
+      <c r="B30" s="38">
+        <v>1000527</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
@@ -2532,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2541,15 +2534,15 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
-        <v>1000509</v>
+      <c r="B31" s="38">
+        <v>1000528</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -2561,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2569,16 +2562,16 @@
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>152</v>
+      <c r="I31" s="37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
-        <v>1000510</v>
+      <c r="B32" s="38">
+        <v>1000529</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
@@ -2590,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2598,16 +2591,16 @@
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>152</v>
+      <c r="I32" s="37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
-        <v>1000511</v>
+      <c r="B33" s="38">
+        <v>1000530</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
@@ -2619,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2627,16 +2620,16 @@
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>152</v>
+      <c r="I33" s="37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
-        <v>1000512</v>
+      <c r="B34" s="38">
+        <v>1000531</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2648,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2656,16 +2649,16 @@
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>152</v>
+      <c r="I34" s="37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
-        <v>1000513</v>
+      <c r="B35" s="38">
+        <v>1000532</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
@@ -2677,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>94</v>
@@ -2686,13 +2679,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2702,8 +2695,8 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
-        <v>1000514</v>
+      <c r="B36" s="38">
+        <v>1000533</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
@@ -2715,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>95</v>
@@ -2724,13 +2717,13 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2740,8 +2733,8 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="36">
-        <v>1000515</v>
+      <c r="B37" s="38">
+        <v>1000534</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
@@ -2753,30 +2746,30 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="36">
-        <v>1000516</v>
+      <c r="B38" s="38">
+        <v>1000535</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
@@ -2788,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2797,15 +2790,15 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="36">
-        <v>1000517</v>
+      <c r="B39" s="38">
+        <v>1000536</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
@@ -2817,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2826,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
   <si>
     <t>index|索引</t>
   </si>
@@ -617,18 +617,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"swjl_5",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -696,14 +684,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"小游戏币：可在小游戏中使用。","河灯：可用于兑换奖品。","请在苹果大战中使用"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -744,7 +724,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除2次孙悟空</t>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1330,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1595,7 +1599,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1890,10 +1894,10 @@
         <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1905,7 +1909,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1920,7 +1924,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1932,7 +1936,7 @@
         <v>119</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1959,7 +1963,7 @@
         <v>121</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1986,7 +1990,7 @@
         <v>119</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1998,10 +2002,10 @@
         <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -2013,7 +2017,7 @@
         <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -2025,10 +2029,10 @@
         <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -2082,7 +2086,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2109,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2136,7 +2140,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2277,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>94</v>
@@ -2286,7 +2290,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2306,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>96</v>
@@ -2315,7 +2319,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2335,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>95</v>
@@ -2344,7 +2348,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2364,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>97</v>
@@ -2373,7 +2377,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2393,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>98</v>
@@ -2402,13 +2406,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2431,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>99</v>
@@ -2440,13 +2444,13 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>71</v>
@@ -2469,24 +2473,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2507,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>101</v>
@@ -2516,7 +2520,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2538,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>100</v>
@@ -2547,7 +2551,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2567,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>102</v>
@@ -2576,7 +2580,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2596,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>103</v>
@@ -2605,7 +2609,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2625,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>95</v>
@@ -2634,7 +2638,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2654,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>97</v>
@@ -2663,7 +2667,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2683,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>98</v>
@@ -2692,13 +2696,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2721,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>99</v>
@@ -2730,13 +2734,13 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>71</v>
@@ -2759,22 +2763,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2794,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>101</v>
@@ -2803,7 +2807,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2823,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>100</v>
@@ -2832,7 +2836,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="156">
   <si>
     <t>index|索引</t>
   </si>
@@ -657,10 +657,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"核桃早餐奶8盒"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ltfl_banner_2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -720,6 +716,14 @@
   <si>
     <t>hlfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"琥珀核桃500g"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"琥珀核桃500g"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1250,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1302,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1317,7 +1321,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1334,7 +1338,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1351,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1368,7 +1372,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1385,7 +1389,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1581,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2264,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2273,7 +2277,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2293,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2302,7 +2306,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2322,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2331,7 +2335,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2351,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2360,7 +2364,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2389,13 +2393,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2427,7 +2431,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
@@ -2456,16 +2460,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2473,7 +2477,7 @@
         <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2494,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2503,7 +2507,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2525,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2534,7 +2538,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2554,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2563,7 +2567,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2583,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2592,7 +2596,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2612,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2621,7 +2625,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2641,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2650,7 +2654,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2679,13 +2683,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2717,7 +2721,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
@@ -2746,22 +2750,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2781,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2790,7 +2794,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2810,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2819,7 +2823,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="170">
   <si>
     <t>index|索引</t>
   </si>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"核桃早餐奶8盒"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ltfl_banner_2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -694,14 +690,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"琥珀核桃500g",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -722,7 +710,86 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"琥珀核桃500g"</t>
+    <t>"jing_bi","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"jing_bi","swjl_5",</t>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,"琥珀核桃500g"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1088888</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1369,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>42</v>
@@ -1321,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>43</v>
@@ -1338,7 +1405,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1355,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1372,7 +1439,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1389,7 +1456,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1586,7 +1653,7 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2268,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2277,7 +2344,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2297,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2306,7 +2373,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2326,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2335,7 +2402,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2355,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2364,7 +2431,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2393,13 +2460,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2431,7 +2498,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
@@ -2460,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2477,7 +2544,7 @@
         <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2498,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2507,7 +2574,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2529,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2538,7 +2605,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2558,16 +2625,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2587,16 +2654,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2616,16 +2683,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="H33" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2645,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="H34" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2674,22 +2741,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="H35" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2712,16 +2779,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
@@ -2750,22 +2817,22 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2785,16 +2852,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2814,16 +2881,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
   <si>
     <t>index|索引</t>
   </si>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_xyxfl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>act_xyxfl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -219,10 +215,6 @@
   </si>
   <si>
     <t>免费金币_cjj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -295,10 +287,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>限时返利--v3_cjj</t>
   </si>
   <si>
@@ -328,14 +316,6 @@
   </si>
   <si>
     <t>感恩回馈--v3--冲金鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v4--冲金鸡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl_v4_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -482,10 +462,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"","",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"2500万-6800万","1500",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -759,6 +735,34 @@
   </si>
   <si>
     <t>30000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_xyxfl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币福袋：随机开出大额金币","铁锤道具：可兑换奖励",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1254,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -1313,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10">
         <v>2</v>
@@ -1330,13 +1334,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="10">
         <v>3</v>
@@ -1347,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="10">
         <v>4</v>
@@ -1364,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="10">
         <v>5</v>
@@ -1381,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="E7" s="10">
         <v>6</v>
@@ -1405,7 +1409,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1469,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -1482,7 +1486,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="11" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1490,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -1503,7 +1507,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1524,7 +1528,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -1545,7 +1549,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1580,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1634,7 +1638,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1675,19 +1679,19 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="16">
         <v>1</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>36</v>
@@ -1708,19 +1712,19 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>36</v>
@@ -1743,19 +1747,19 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>35</v>
@@ -1776,19 +1780,19 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>35</v>
@@ -1809,22 +1813,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24"/>
@@ -1842,22 +1846,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="24"/>
@@ -1876,22 +1880,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -1903,22 +1907,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I9" s="22"/>
     </row>
@@ -1930,22 +1934,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="22"/>
     </row>
@@ -1960,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11" s="22"/>
     </row>
@@ -1984,22 +1988,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12" s="22"/>
     </row>
@@ -2011,19 +2015,19 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>34</v>
@@ -2038,19 +2042,19 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>34</v>
@@ -2065,19 +2069,19 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E15" s="16">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>33</v>
@@ -2092,19 +2096,19 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>34</v>
@@ -2119,19 +2123,19 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>34</v>
@@ -2146,19 +2150,19 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>34</v>
@@ -2173,19 +2177,19 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>34</v>
@@ -2203,16 +2207,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>34</v>
@@ -2230,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>34</v>
@@ -2257,22 +2261,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" s="18">
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2286,22 +2290,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2315,22 +2319,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E24" s="18">
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2344,22 +2348,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="H25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2373,22 +2377,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="18">
         <v>1</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="M26" s="19"/>
       <c r="O26" s="19"/>
@@ -2404,22 +2408,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E27" s="18">
         <v>1</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="M27" s="19"/>
       <c r="O27" s="19"/>
@@ -2435,22 +2439,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E28" s="18">
         <v>1</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -2468,22 +2472,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="G29" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2497,22 +2501,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E30" s="18">
         <v>1</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2526,22 +2530,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E31" s="18">
         <v>1</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2555,22 +2559,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2584,22 +2588,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="18">
         <v>1</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2613,22 +2617,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="18">
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2642,22 +2646,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M35" s="19"/>
       <c r="O35" s="19"/>
@@ -2673,22 +2677,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="18">
         <v>1</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M36" s="19"/>
       <c r="O36" s="19"/>
@@ -2704,22 +2708,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E37" s="18">
         <v>1</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M37" s="19"/>
     </row>
@@ -2734,22 +2738,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E38" s="18">
         <v>1</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2763,22 +2767,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="18">
         <v>1</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2792,22 +2796,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E40" s="18">
         <v>1</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2821,22 +2825,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E41" s="18">
         <v>1</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="141">
   <si>
     <t>index|索引</t>
   </si>
@@ -536,22 +536,34 @@
     <t>在3D捕鱼海底宝藏中累计使用5次双倍奖励</t>
   </si>
   <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个唐僧</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+1</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+5</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除6个孙悟空</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个唐僧</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出2个英雄</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出4个英雄</t>
+  </si>
+  <si>
     <t>在西游消消乐中消除2次唐僧</t>
-  </si>
-  <si>
-    <t>在水果消消乐闯关中当前关卡数+1</t>
-  </si>
-  <si>
-    <t>在水果消消乐闯关中当前关卡数+5</t>
-  </si>
-  <si>
-    <t>在西游消消乐中累计消除2次孙悟空</t>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计召唤出2个英雄</t>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计召唤出4个英雄</t>
   </si>
 </sst>
 </file>
@@ -559,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -609,6 +621,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -617,23 +637,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,29 +666,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,48 +698,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,6 +714,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,13 +803,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,145 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,20 +988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,32 +1018,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,16 +1061,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1965,7 +1977,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3387,10 +3399,10 @@
         <v>1000589</v>
       </c>
       <c r="C48" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -3413,10 +3425,10 @@
         <v>1000590</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -3546,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -3572,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -3595,10 +3607,10 @@
         <v>1000597</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -3621,10 +3633,10 @@
         <v>1000598</v>
       </c>
       <c r="C57" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -3647,10 +3659,10 @@
         <v>1000599</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -3676,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -3702,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -3962,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -570,10 +570,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除1次唐僧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -598,10 +594,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除2次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出4个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -631,10 +623,6 @@
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +751,18 @@
   </si>
   <si>
     <t>"金币福袋：随机开出大额金币","铁锤道具：可兑换奖励",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1298,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>40</v>
@@ -1385,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="10">
         <v>6</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1679,7 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>110</v>
@@ -1712,7 +1712,7 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>111</v>
@@ -1724,7 +1724,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>36</v>
@@ -1747,7 +1747,7 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>112</v>
@@ -1780,7 +1780,7 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>113</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>35</v>
@@ -1813,10 +1813,10 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
@@ -1825,10 +1825,10 @@
         <v>41</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="24"/>
@@ -1846,10 +1846,10 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1858,10 +1858,10 @@
         <v>41</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="24"/>
@@ -1880,10 +1880,10 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1892,10 +1892,10 @@
         <v>41</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -1907,10 +1907,10 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>68</v>
@@ -1934,10 +1934,10 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>68</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>41</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>68</v>
@@ -1988,19 +1988,19 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>67</v>
@@ -2015,19 +2015,19 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E13" s="16">
         <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>34</v>
@@ -2042,19 +2042,19 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>139</v>
-      </c>
       <c r="G14" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>34</v>
@@ -2069,19 +2069,19 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="16">
         <v>1</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>33</v>
@@ -2096,19 +2096,19 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>34</v>
@@ -2123,19 +2123,19 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>34</v>
@@ -2153,16 +2153,16 @@
         <v>42</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>34</v>
@@ -2180,16 +2180,16 @@
         <v>43</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="16">
         <v>1</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>34</v>
@@ -2207,16 +2207,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>34</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H21" s="22" t="s">
         <v>34</v>
@@ -2276,7 +2276,7 @@
         <v>50</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2305,7 +2305,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2334,7 +2334,7 @@
         <v>50</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2363,7 +2363,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2392,7 +2392,7 @@
         <v>51</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" s="19"/>
       <c r="O26" s="19"/>
@@ -2423,7 +2423,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M27" s="19"/>
       <c r="O27" s="19"/>
@@ -2454,7 +2454,7 @@
         <v>52</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -2487,7 +2487,7 @@
         <v>53</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2516,7 +2516,7 @@
         <v>49</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2545,7 +2545,7 @@
         <v>50</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2574,7 +2574,7 @@
         <v>49</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.15">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="140">
   <si>
     <t>index|索引</t>
   </si>
@@ -562,19 +562,16 @@
   <si>
     <t>在水浒消消乐中累计召唤出4个英雄</t>
   </si>
-  <si>
-    <t>在西游消消乐中消除2次唐僧</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -621,35 +618,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -657,32 +625,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,9 +648,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,16 +685,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -745,9 +726,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,7 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +836,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,13 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,115 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,6 +1000,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1038,45 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1091,10 +1088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,133 +1100,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1977,7 +1974,7 @@
   <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3945,10 +3942,10 @@
         <v>1000589</v>
       </c>
       <c r="C69" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -3971,10 +3968,10 @@
         <v>1000590</v>
       </c>
       <c r="C70" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="188">
   <si>
     <t>index|索引</t>
   </si>
@@ -596,7 +596,10 @@
     <t>30,</t>
   </si>
   <si>
-    <t>在西游消消乐中消除3次孙悟空</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除9个孙悟空</t>
   </si>
   <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
@@ -747,9 +750,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -798,24 +801,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,16 +815,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,17 +831,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,10 +883,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -896,17 +907,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,7 +924,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,19 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1048,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,67 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,19 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1177,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,9 +1199,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,6 +1223,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1229,6 +1243,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,36 +1270,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1285,37 +1288,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,94 +1327,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2210,7 +2213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4490,10 +4493,10 @@
         <v>1000625</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -4516,10 +4519,10 @@
         <v>1000626</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
@@ -4646,10 +4649,10 @@
         <v>1000631</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -4672,10 +4675,10 @@
         <v>1000632</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4701,7 +4704,7 @@
         <v>72</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -4736,7 +4739,7 @@
         <v>143</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>76</v>
@@ -4750,7 +4753,7 @@
         <v>1000635</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>93</v>
@@ -4776,7 +4779,7 @@
         <v>1000636</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>95</v>
@@ -4863,19 +4866,19 @@
         <v>1</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4895,19 +4898,19 @@
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4927,19 +4930,19 @@
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4959,19 +4962,19 @@
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4991,19 +4994,19 @@
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5023,19 +5026,19 @@
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5055,19 +5058,19 @@
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5087,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>99</v>
@@ -5113,10 +5116,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>99</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
   <si>
     <t>index|索引</t>
   </si>
@@ -202,6 +202,9 @@
       </rPr>
       <t>6,37,38,39,40</t>
     </r>
+  </si>
+  <si>
+    <t>103,104,105,106,107,108,109,110</t>
   </si>
   <si>
     <t>94,95,96,97,98,99,100,101,102</t>
@@ -750,10 +753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -800,18 +803,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,6 +855,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,7 +872,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,39 +893,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -892,7 +902,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -908,13 +918,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -988,7 +991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,25 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,25 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,24 +1063,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1120,13 +1075,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,13 +1123,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,6 +1185,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1208,26 +1235,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,15 +1255,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,16 +1291,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1306,120 +1309,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,11 +1477,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1807,7 +1813,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1824,61 +1830,61 @@
   </cols>
   <sheetData>
     <row r="1" s="21" customFormat="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" ht="16.5" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="28">
         <v>2</v>
       </c>
     </row>
@@ -1886,16 +1892,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="28">
         <v>3</v>
       </c>
     </row>
@@ -1903,16 +1909,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="28">
         <v>4</v>
       </c>
     </row>
@@ -1920,16 +1926,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="28">
         <v>5</v>
       </c>
     </row>
@@ -1937,16 +1943,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>6</v>
       </c>
     </row>
@@ -1954,13 +1960,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E8">
@@ -1974,7 +1980,7 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
@@ -1996,8 +2002,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2008,7 +2014,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="22" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2019,163 +2025,166 @@
       <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="28">
         <v>0</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="28">
         <v>0</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="28">
         <v>0</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="28">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2194,8 +2203,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>43</v>
+      <c r="G9" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2208,12 +2217,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2242,61 +2251,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2307,22 +2316,22 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
@@ -2340,22 +2349,22 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7"/>
@@ -2375,22 +2384,22 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -2408,22 +2417,22 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
@@ -2441,22 +2450,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -2474,22 +2483,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -2508,22 +2517,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2535,22 +2544,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2562,22 +2571,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2592,19 +2601,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2616,22 +2625,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2643,22 +2652,22 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2670,22 +2679,22 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2697,22 +2706,22 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2724,22 +2733,22 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2751,22 +2760,22 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2778,22 +2787,22 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2805,22 +2814,22 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2832,22 +2841,22 @@
         <v>1000581</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2862,19 +2871,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2889,22 +2898,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:9">
@@ -2918,22 +2927,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:9">
@@ -2947,22 +2956,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
@@ -2976,22 +2985,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
@@ -3005,22 +3014,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="10"/>
       <c r="O26" s="10"/>
@@ -3036,22 +3045,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" s="10"/>
       <c r="O27" s="10"/>
@@ -3067,22 +3076,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3100,22 +3109,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
@@ -3129,22 +3138,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
@@ -3158,22 +3167,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
@@ -3187,22 +3196,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
@@ -3216,22 +3225,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -3245,22 +3254,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
@@ -3274,22 +3283,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M35" s="10"/>
       <c r="O35" s="10"/>
@@ -3305,22 +3314,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M36" s="10"/>
       <c r="O36" s="10"/>
@@ -3336,22 +3345,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -3366,22 +3375,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
@@ -3395,22 +3404,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
@@ -3424,22 +3433,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
@@ -3453,22 +3462,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3482,19 +3491,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3508,19 +3517,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3534,19 +3543,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3560,19 +3569,19 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3586,19 +3595,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3612,19 +3621,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3638,19 +3647,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3664,19 +3673,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3690,19 +3699,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3716,19 +3725,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3742,19 +3751,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3768,19 +3777,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3794,19 +3803,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3820,19 +3829,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3846,19 +3855,19 @@
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3872,19 +3881,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3898,19 +3907,19 @@
         <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3924,19 +3933,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3950,19 +3959,19 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3976,19 +3985,19 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4002,19 +4011,19 @@
         <v>300000</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4028,19 +4037,19 @@
         <v>600000</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4054,19 +4063,19 @@
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4080,19 +4089,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4106,19 +4115,19 @@
         <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4132,19 +4141,19 @@
         <v>5</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4158,19 +4167,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4184,19 +4193,19 @@
         <v>6</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4210,19 +4219,19 @@
         <v>6</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4236,19 +4245,19 @@
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4262,19 +4271,19 @@
         <v>4</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4288,19 +4297,19 @@
         <v>3</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4314,19 +4323,19 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4337,22 +4346,22 @@
         <v>1000619</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4363,22 +4372,22 @@
         <v>1000620</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4389,22 +4398,22 @@
         <v>1000621</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4415,22 +4424,22 @@
         <v>1000622</v>
       </c>
       <c r="C78" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4441,22 +4450,22 @@
         <v>1000623</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4467,22 +4476,22 @@
         <v>1000624</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4493,22 +4502,22 @@
         <v>1000625</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4519,22 +4528,22 @@
         <v>1000626</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4545,22 +4554,22 @@
         <v>1000627</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4571,22 +4580,22 @@
         <v>1000628</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4597,22 +4606,22 @@
         <v>1000629</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4623,22 +4632,22 @@
         <v>1000630</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4649,22 +4658,22 @@
         <v>1000631</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4675,22 +4684,22 @@
         <v>1000632</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4701,22 +4710,22 @@
         <v>1000633</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4727,22 +4736,22 @@
         <v>1000634</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4753,22 +4762,22 @@
         <v>1000635</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4779,22 +4788,22 @@
         <v>1000636</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4805,22 +4814,22 @@
         <v>1000637</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4831,22 +4840,22 @@
         <v>1000638</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4857,28 +4866,28 @@
         <v>1000640</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4889,28 +4898,28 @@
         <v>1000641</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4921,28 +4930,28 @@
         <v>1000642</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4953,28 +4962,28 @@
         <v>1000643</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4985,28 +4994,28 @@
         <v>1000644</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5017,28 +5026,28 @@
         <v>1000645</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5049,28 +5058,28 @@
         <v>1000646</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5081,22 +5090,22 @@
         <v>1000647</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5107,26 +5116,231 @@
         <v>1000648</v>
       </c>
       <c r="C103" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="9">
+        <v>103</v>
+      </c>
+      <c r="B104" s="16">
+        <v>1000649</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="9">
+        <v>104</v>
+      </c>
+      <c r="B105" s="16">
+        <v>1000650</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="16">
+        <v>1000651</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="16">
+        <v>1000652</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="16">
+        <v>1000653</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="16">
+        <v>1000654</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="16">
+        <v>1000655</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="16">
+        <v>1000656</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D103" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="16"/>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="188">
   <si>
     <t>index|索引</t>
   </si>
@@ -122,9 +122,6 @@
     <t>act_mfhf_byam</t>
   </si>
   <si>
-    <t>mfhf_bg_1</t>
-  </si>
-  <si>
     <t>奖励话费_byam</t>
   </si>
   <si>
@@ -204,7 +201,7 @@
     </r>
   </si>
   <si>
-    <t>103,104,105,106,107,108,109,110</t>
+    <t>76,77,78,79,80,81,82,83</t>
   </si>
   <si>
     <t>94,95,96,97,98,99,100,101,102</t>
@@ -753,12 +750,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,10 +794,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -808,21 +807,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,6 +825,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -848,10 +847,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,29 +887,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,16 +902,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,9 +917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,7 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +1030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1054,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,25 +1078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,37 +1108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,43 +1132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,17 +1169,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1209,28 +1193,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1207,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,6 +1231,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,10 +1270,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,138 +1282,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,9 +1478,6 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1812,8 +1800,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1956,18 +1944,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1978,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2002,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2020,25 +2008,25 @@
   <sheetData>
     <row r="1" s="21" customFormat="1" spans="1:7">
       <c r="A1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2059,7 +2047,7 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2080,7 +2068,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2088,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -2101,7 +2089,7 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2109,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -2122,7 +2110,7 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2130,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -2143,7 +2131,7 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2151,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -2164,7 +2152,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2183,8 +2171,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>43</v>
+      <c r="G8" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2192,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2204,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2220,9 +2208,9 @@
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2251,61 +2239,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2316,22 +2304,22 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
@@ -2349,22 +2337,22 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7"/>
@@ -2384,22 +2372,22 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -2417,22 +2405,22 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
@@ -2450,22 +2438,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -2483,22 +2471,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -2517,22 +2505,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2544,22 +2532,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2571,22 +2559,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2601,19 +2589,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2625,22 +2613,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2652,22 +2640,22 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2679,22 +2667,22 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2706,22 +2694,22 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2733,22 +2721,22 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2760,22 +2748,22 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2787,22 +2775,22 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2814,22 +2802,22 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2841,22 +2829,22 @@
         <v>1000581</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2871,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2898,22 +2886,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:9">
@@ -2927,22 +2915,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:9">
@@ -2956,22 +2944,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="H24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
@@ -2985,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="H25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
@@ -3014,22 +3002,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="H26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="M26" s="10"/>
       <c r="O26" s="10"/>
@@ -3045,22 +3033,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="H27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="M27" s="10"/>
       <c r="O27" s="10"/>
@@ -3076,22 +3064,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="H28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3109,22 +3097,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="H29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
@@ -3138,22 +3126,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="H30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
@@ -3167,22 +3155,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="H31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
@@ -3196,22 +3184,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
@@ -3225,22 +3213,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -3254,22 +3242,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
@@ -3283,22 +3271,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35" s="10"/>
       <c r="O35" s="10"/>
@@ -3314,22 +3302,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36" s="10"/>
       <c r="O36" s="10"/>
@@ -3345,22 +3333,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -3375,22 +3363,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
@@ -3404,22 +3392,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
@@ -3433,22 +3421,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
@@ -3462,22 +3450,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3491,19 +3479,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3517,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3543,19 +3531,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3569,19 +3557,19 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3595,19 +3583,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H46" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3621,19 +3609,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3647,19 +3635,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3673,19 +3661,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3699,19 +3687,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3725,19 +3713,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3751,19 +3739,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3777,19 +3765,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3803,19 +3791,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3829,19 +3817,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3855,19 +3843,19 @@
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H56" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3881,19 +3869,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3907,19 +3895,19 @@
         <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3933,19 +3921,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3959,19 +3947,19 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3985,19 +3973,19 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4011,19 +3999,19 @@
         <v>300000</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4037,19 +4025,19 @@
         <v>600000</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4063,19 +4051,19 @@
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4089,19 +4077,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4115,19 +4103,19 @@
         <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4141,19 +4129,19 @@
         <v>5</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H67" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4167,19 +4155,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4193,19 +4181,19 @@
         <v>6</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4219,19 +4207,19 @@
         <v>6</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4245,19 +4233,19 @@
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4271,19 +4259,19 @@
         <v>4</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4297,19 +4285,19 @@
         <v>3</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4323,19 +4311,19 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4346,22 +4334,22 @@
         <v>1000619</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H75" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4372,22 +4360,22 @@
         <v>1000620</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="H76" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4398,22 +4386,22 @@
         <v>1000621</v>
       </c>
       <c r="C77" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4424,22 +4412,22 @@
         <v>1000622</v>
       </c>
       <c r="C78" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4450,22 +4438,22 @@
         <v>1000623</v>
       </c>
       <c r="C79" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4476,22 +4464,22 @@
         <v>1000624</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="H80" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4502,22 +4490,22 @@
         <v>1000625</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4528,22 +4516,22 @@
         <v>1000626</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4554,22 +4542,22 @@
         <v>1000627</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4580,22 +4568,22 @@
         <v>1000628</v>
       </c>
       <c r="C84" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E84" s="2">
         <v>1</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4606,22 +4594,22 @@
         <v>1000629</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4632,22 +4620,22 @@
         <v>1000630</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4658,22 +4646,22 @@
         <v>1000631</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4684,22 +4672,22 @@
         <v>1000632</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4710,22 +4698,22 @@
         <v>1000633</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4736,22 +4724,22 @@
         <v>1000634</v>
       </c>
       <c r="C90" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4762,22 +4750,22 @@
         <v>1000635</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4788,22 +4776,22 @@
         <v>1000636</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4814,22 +4802,22 @@
         <v>1000637</v>
       </c>
       <c r="C93" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4840,22 +4828,22 @@
         <v>1000638</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4866,28 +4854,28 @@
         <v>1000640</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
       </c>
       <c r="F95" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L95" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L95" s="3" t="s">
+      <c r="M95" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4898,28 +4886,28 @@
         <v>1000641</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4930,28 +4918,28 @@
         <v>1000642</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L97" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L97" s="3" t="s">
+      <c r="M97" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4962,28 +4950,28 @@
         <v>1000643</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L98" s="3" t="s">
+      <c r="M98" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4994,28 +4982,28 @@
         <v>1000644</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L99" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5026,28 +5014,28 @@
         <v>1000645</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5058,28 +5046,28 @@
         <v>1000646</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5090,22 +5078,22 @@
         <v>1000647</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5116,231 +5104,95 @@
         <v>1000648</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="9">
-        <v>103</v>
-      </c>
-      <c r="B104" s="16">
-        <v>1000649</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A104" s="9"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="18"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="9">
-        <v>104</v>
-      </c>
-      <c r="B105" s="16">
-        <v>1000650</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A105" s="9"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="18"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="9">
-        <v>105</v>
-      </c>
-      <c r="B106" s="16">
-        <v>1000651</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A106" s="9"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="18"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="9">
-        <v>106</v>
-      </c>
-      <c r="B107" s="16">
-        <v>1000652</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="A107" s="9"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="18"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="9">
-        <v>107</v>
-      </c>
-      <c r="B108" s="16">
-        <v>1000653</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A108" s="9"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="18"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="9">
-        <v>108</v>
-      </c>
-      <c r="B109" s="16">
-        <v>1000654</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A109" s="9"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="18"/>
+      <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="9">
-        <v>109</v>
-      </c>
-      <c r="B110" s="16">
-        <v>1000655</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A110" s="9"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="18"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
-      <c r="B111" s="16">
-        <v>1000656</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="A111" s="9"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="18"/>
+      <c r="H111" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -599,7 +599,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>在西游消消乐中消除9个孙悟空</t>
+    <t>在西游消消乐中消除3次孙悟空</t>
   </si>
   <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
@@ -750,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -800,17 +800,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,44 +846,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,14 +861,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +901,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,13 +925,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,19 +988,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,43 +1042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1072,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,61 +1138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,6 +1174,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1189,25 +1204,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,17 +1227,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,6 +1253,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1261,25 +1270,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,133 +1288,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2210,10 +2210,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22:I31"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4496,7 +4496,7 @@
         <v>82</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -4522,7 +4522,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
@@ -4652,7 +4652,7 @@
         <v>82</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="187">
   <si>
     <t>index|索引</t>
   </si>
@@ -596,9 +596,6 @@
     <t>30,</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>在西游消消乐中消除3次孙悟空</t>
   </si>
   <si>
@@ -750,9 +747,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -814,6 +811,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -828,42 +849,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -883,25 +881,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,7 +985,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,55 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,25 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,43 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,6 +1166,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,39 +1229,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,10 +1273,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,133 +1285,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2211,9 +2208,9 @@
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4493,7 +4490,7 @@
         <v>1000625</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>75</v>
@@ -4519,7 +4516,7 @@
         <v>1000626</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>77</v>
@@ -4649,7 +4646,7 @@
         <v>1000631</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>75</v>
@@ -4675,10 +4672,10 @@
         <v>1000632</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -4704,7 +4701,7 @@
         <v>72</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -4739,7 +4736,7 @@
         <v>143</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>76</v>
@@ -4753,7 +4750,7 @@
         <v>1000635</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>93</v>
@@ -4779,7 +4776,7 @@
         <v>1000636</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>95</v>
@@ -4866,19 +4863,19 @@
         <v>1</v>
       </c>
       <c r="F95" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M95" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4898,19 +4895,19 @@
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4930,19 +4927,19 @@
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L97" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M97" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4962,19 +4959,19 @@
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L98" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M98" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4994,19 +4991,19 @@
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L99" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M99" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5026,19 +5023,19 @@
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L100" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5058,19 +5055,19 @@
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>99</v>
       </c>
       <c r="L101" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5090,10 +5087,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>99</v>
@@ -5116,10 +5113,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>99</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
   <si>
     <t>index|索引</t>
   </si>
@@ -77,57 +77,63 @@
     </r>
   </si>
   <si>
-    <t>act_yxrw</t>
+    <t>act_mfhf</t>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+  </si>
+  <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
+    <t>act_mfhf_cjj</t>
+  </si>
+  <si>
+    <t>奖励金币_cjj</t>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
+  </si>
+  <si>
+    <t>hhfl_bg_1</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_mfhf_byam</t>
   </si>
   <si>
     <t>hlfl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币</t>
-  </si>
-  <si>
-    <t>act_yxrw_cjj</t>
-  </si>
-  <si>
-    <t>奖励金币_cjj</t>
-  </si>
-  <si>
-    <t>act_lgfl_normal</t>
-  </si>
-  <si>
-    <t>hhfl_bg_1</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_normal</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_mfhf_byam</t>
-  </si>
-  <si>
     <t>奖励话费_byam</t>
   </si>
   <si>
     <t>act_ymfl</t>
   </si>
   <si>
+    <t>ymfl_bg_1</t>
+  </si>
+  <si>
     <t>月末返利</t>
   </si>
   <si>
@@ -152,10 +158,10 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17,18,19,20,21,22,23,24</t>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -168,6 +174,9 @@
   </si>
   <si>
     <t>限时返利--v4_cjj</t>
+  </si>
+  <si>
+    <t>21,22,23,24,25,26,27,28,29</t>
   </si>
   <si>
     <t>id|</t>
@@ -247,10 +256,10 @@
     <t>cheak_num|检查道具的数量</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢1万</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
   </si>
   <si>
     <t>"jing_bi",</t>
@@ -259,55 +268,46 @@
     <t>5000,</t>
   </si>
   <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>在3D捕鱼用3000及以上炮倍捕获3只欢乐券boss</t>
+  </si>
+  <si>
+    <t>10000,</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+5</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+  </si>
+  <si>
     <t>"game_MiniGame",</t>
   </si>
   <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢5万</t>
-  </si>
-  <si>
-    <t>10000,</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>在苹果大战中，累计纯赢20万</t>
-  </si>
-  <si>
-    <t>20000,</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险中当前层数+5</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏累计使用5次双倍奖励</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏及以上场次任意击杀1条boss</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个孙悟空</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除6个唐僧</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>在西游消消乐中消除3个唐僧</t>
   </si>
   <si>
     <t>在水浒消消乐中召唤出2个英雄</t>
@@ -319,73 +319,191 @@
     <t>30000,</t>
   </si>
   <si>
-    <t>在财神消消乐中累计出现2次天女散花</t>
-  </si>
-  <si>
-    <t>在财神消消乐中累计出现5次天女散花</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个孙悟空</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除3个唐僧</t>
+    <t>在水果消消乐闯关中当前关卡数+1</t>
+  </si>
+  <si>
+    <t>在水果消消乐闯关中当前关卡数+5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>在西游消消乐中消除9个孙悟空</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1个英雄</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>在冲金鸡财神模式中连胜3局</t>
+    <t>300000</t>
   </si>
   <si>
     <t>在龙王争霸中累计赢金30万</t>
   </si>
   <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>在龙王争霸中累计赢金60万</t>
   </si>
   <si>
+    <t>在苹果大战中连胜3局</t>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+  </si>
+  <si>
+    <t>在商城中购买3次2498元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_1",</t>
+  </si>
+  <si>
+    <t>"15000000","2400","美的智能烤箱"</t>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
     <t>"swjl_1",</t>
   </si>
   <si>
+    <t>"美的智能烤箱",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次998元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+  </si>
+  <si>
+    <t>"4000000","900","肩颈按摩仪"</t>
+  </si>
+  <si>
+    <t>"swjl_2",</t>
+  </si>
+  <si>
+    <t>"肩颈按摩仪",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次498元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_3",</t>
+  </si>
+  <si>
+    <t>"2000000","450","豪华坚果礼包"</t>
+  </si>
+  <si>
+    <t>"swjl_3",</t>
+  </si>
+  <si>
+    <t>"豪华坚果礼包",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次198元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_4",</t>
+  </si>
+  <si>
+    <t>"800000","150","玉米热狗肠20支"</t>
+  </si>
+  <si>
+    <t>"swjl_4",</t>
+  </si>
+  <si>
+    <t>"玉米热狗肠20支",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次98元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_5",</t>
+  </si>
+  <si>
+    <t>"400000","70","卫龙亲嘴烧30袋"</t>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+  </si>
+  <si>
+    <t>"卫龙亲嘴烧30袋",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次50元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_6",</t>
+  </si>
+  <si>
+    <t>"350000","50","超舒适浴巾1条"</t>
+  </si>
+  <si>
+    <t>"swjl_6",</t>
+  </si>
+  <si>
+    <t>"超舒适浴巾1条",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次30元</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_7",</t>
+  </si>
+  <si>
+    <t>"220000","30","棉签100支"</t>
+  </si>
+  <si>
+    <t>"swjl_7",</t>
+  </si>
+  <si>
+    <t>"棉签100支",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在商城中购买3次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15元</t>
+    </r>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>"150000","20",</t>
+  </si>
+  <si>
+    <t>在商城中购买3次6元</t>
+  </si>
+  <si>
+    <t>"80000","10",</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
-    <t>"swjl_2",</t>
-  </si>
-  <si>
     <t>"不锈钢绞肉机",</t>
   </si>
   <si>
-    <t>"swjl_3",</t>
-  </si>
-  <si>
-    <t>"豪华坚果礼包",</t>
-  </si>
-  <si>
-    <t>"swjl_4",</t>
-  </si>
-  <si>
-    <t>"玉米热狗肠20支",</t>
-  </si>
-  <si>
-    <t>"swjl_5",</t>
-  </si>
-  <si>
-    <t>"卫龙亲嘴烧30袋",</t>
-  </si>
-  <si>
-    <t>"swjl_6",</t>
-  </si>
-  <si>
     <t>"手帕纸10包",</t>
-  </si>
-  <si>
-    <t>"swjl_7",</t>
-  </si>
-  <si>
-    <t>"棉签100支",</t>
   </si>
 </sst>
 </file>
@@ -393,12 +511,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,18 +536,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -443,10 +549,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -457,7 +576,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +607,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,22 +638,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,62 +654,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,6 +667,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -586,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +725,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -643,79 +767,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,79 +905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,6 +953,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -845,11 +984,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,25 +1021,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -901,40 +1049,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,138 +1067,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,54 +1213,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1460,7 +1585,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1518,7 +1643,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1539,10 +1664,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -1556,10 +1681,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -1573,10 +1698,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -1590,10 +1715,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="26" t="s">
@@ -1610,28 +1735,28 @@
       <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>8</v>
+      <c r="C8" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1650,7 +1775,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1667,25 +1792,25 @@
   <sheetData>
     <row r="1" s="20" customFormat="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1706,7 +1831,7 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1727,7 +1852,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1735,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -1754,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -1773,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -1792,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -1824,21 +1949,24 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1851,12 +1979,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1885,61 +2013,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -1947,226 +2075,226 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1000666</v>
+        <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>60</v>
+      <c r="F2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:19">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1000666</v>
+        <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="16"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:19">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1000666</v>
+        <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="16"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:19">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1000667</v>
+        <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="16"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:19">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1000668</v>
+        <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="16"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:19">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1000669</v>
+        <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>67</v>
+      <c r="F7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1000670</v>
+        <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>67</v>
+      <c r="F8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2175,25 +2303,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1000671</v>
+        <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2202,25 +2330,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1000672</v>
+        <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2229,25 +2357,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1000672</v>
+        <v>1000628</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2256,25 +2384,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>1000673</v>
+        <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>67</v>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2283,25 +2411,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>1000673</v>
+        <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2310,25 +2438,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>1000674</v>
+        <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>60</v>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2337,25 +2465,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1000674</v>
+        <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>64</v>
+      <c r="G15" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2364,25 +2492,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1000675</v>
+        <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>64</v>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2391,25 +2519,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>1000675</v>
+        <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2418,25 +2546,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>1000676</v>
+        <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>67</v>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2445,25 +2573,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>1000677</v>
+        <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>67</v>
+      <c r="F19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2472,25 +2600,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>1000677</v>
+        <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2499,598 +2627,698 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>1000681</v>
+        <v>1000638</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>67</v>
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:9">
+    <row r="22" s="2" customFormat="1" spans="1:15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>1000682</v>
+        <v>1000640</v>
       </c>
       <c r="C22" s="1">
-        <v>300000</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>64</v>
+      <c r="F22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="L22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>1000682</v>
+        <v>1000641</v>
       </c>
       <c r="C23" s="1">
-        <v>600000</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="L23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>1000683</v>
+        <v>1000642</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>67</v>
+      <c r="F24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="L24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:13">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>1000683</v>
+        <v>1000643</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:15">
-      <c r="A26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:15">
-      <c r="A27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:15">
-      <c r="A28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="O28" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="L25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:13">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1000644</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="L26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:13">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1000645</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="L27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:13">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1000646</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="L28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1000647</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1000648</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:15">
+      <c r="A31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:15">
+      <c r="A32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="17"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:9">
-      <c r="A33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="M32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:13">
+      <c r="A33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="17"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:15">
-      <c r="A35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="F35" s="13"/>
+    <row r="35" s="2" customFormat="1" spans="1:9">
+      <c r="A35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="17"/>
-      <c r="M35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:15">
-      <c r="A36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="F36" s="13"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="17"/>
-      <c r="M36" s="13"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:13">
-      <c r="A37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="F37" s="13"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="17"/>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="17"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="19"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="19"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="19"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="19"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="19"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="19"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="19"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="19"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="19"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="19"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="19"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="19"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="19"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="19"/>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:13">
+      <c r="A91" s="13"/>
       <c r="B91" s="19"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="12"/>
+      <c r="L91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="13"/>
       <c r="B92" s="19"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="12"/>
+      <c r="L92" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="13"/>
       <c r="B93" s="19"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="12"/>
+      <c r="L93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="13"/>
       <c r="B94" s="19"/>
+      <c r="L94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="19"/>
       <c r="L95" s="3" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="12"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="19"/>
       <c r="L96" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="12"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="19"/>
       <c r="L97" s="3" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="12"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="13"/>
       <c r="B98" s="19"/>
-      <c r="L98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="12"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="13"/>
       <c r="B99" s="19"/>
-      <c r="L99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="12"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="13"/>
       <c r="B100" s="19"/>
-      <c r="L100" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="12"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="13"/>
       <c r="B101" s="19"/>
-      <c r="L101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="19"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="19"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="19"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="19"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="12"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="19"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="19"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="19"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="19"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="12060" windowHeight="11280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -262,10 +262,10 @@
     <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
   </si>
   <si>
-    <t>"jing_bi",</t>
-  </si>
-  <si>
-    <t>5000,</t>
+    <t>prop_web_chip_huafei,</t>
+  </si>
+  <si>
+    <t>5,</t>
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
@@ -277,7 +277,7 @@
     <t>在3D捕鱼用3000及以上炮倍捕获3只欢乐券boss</t>
   </si>
   <si>
-    <t>10000,</t>
+    <t>10,</t>
   </si>
   <si>
     <t>2</t>
@@ -286,19 +286,19 @@
     <t>在3D捕鱼深海探险当前层数+2</t>
   </si>
   <si>
-    <t>20000,</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+5</t>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
-  </si>
-  <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
+    <t>在3D捕鱼海底宝藏及以上场次任意击杀1条boss</t>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏及以上场次任意击杀3条boss</t>
+  </si>
+  <si>
+    <t>30,</t>
   </si>
   <si>
     <t>在西游消消乐中消除3个孙悟空</t>
@@ -316,7 +316,7 @@
     <t>在水浒消消乐中召唤出4个英雄</t>
   </si>
   <si>
-    <t>30000,</t>
+    <t>20,</t>
   </si>
   <si>
     <t>在水果消消乐闯关中当前关卡数+1</t>
@@ -511,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -562,7 +562,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,6 +577,60 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,29 +646,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,7 +676,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,47 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,85 +767,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,73 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,6 +952,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -963,6 +983,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,22 +1015,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,31 +1035,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1984,7 +1984,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2158,7 +2158,7 @@
         <v>62</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>64</v>
@@ -2179,10 +2179,10 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>64</v>
@@ -2291,7 +2291,7 @@
         <v>62</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>76</v>
@@ -2318,7 +2318,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>76</v>
@@ -2345,7 +2345,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>76</v>
@@ -2399,7 +2399,7 @@
         <v>62</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>76</v>
@@ -2414,7 +2414,7 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>82</v>
@@ -2426,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>76</v>
@@ -2453,7 +2453,7 @@
         <v>62</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>76</v>
@@ -2480,7 +2480,7 @@
         <v>62</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>76</v>
@@ -2534,7 +2534,7 @@
         <v>62</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>76</v>
@@ -2561,7 +2561,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>76</v>
@@ -2588,7 +2588,7 @@
         <v>62</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
@@ -2642,7 +2642,7 @@
         <v>62</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>76</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12060" windowHeight="11280" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <t>在3D捕鱼用3000及以上炮倍捕获1只欢乐券boss</t>
   </si>
   <si>
-    <t>prop_web_chip_huafei,</t>
+    <t>"prop_web_chip_huafei",</t>
   </si>
   <si>
     <t>5,</t>
@@ -511,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -568,8 +568,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,6 +622,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -599,22 +645,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,22 +676,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -666,37 +697,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -767,31 +767,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,127 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,11 +952,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +992,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,54 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1049,16 +1040,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1984,7 +1984,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
   <si>
     <t>index|索引</t>
   </si>
@@ -86,7 +86,10 @@
     <t>奖励金币</t>
   </si>
   <si>
-    <t>act_mfhf_cjj</t>
+    <t>act_dlyl_cjj</t>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
   </si>
   <si>
     <t>奖励金币_cjj</t>
@@ -137,6 +140,15 @@
     <t>月末返利</t>
   </si>
   <si>
+    <t>act_qyzl_cjj</t>
+  </si>
+  <si>
+    <t>qyzl_bg_1</t>
+  </si>
+  <si>
+    <t>七月赠礼_cjj</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -161,7 +173,7 @@
     <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -177,6 +189,9 @@
   </si>
   <si>
     <t>21,22,23,24,25,26,27,28,29</t>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
   </si>
   <si>
     <t>id|</t>
@@ -497,6 +512,183 @@
     <t>"80000","10",</t>
   </si>
   <si>
+    <t>登录1次游戏</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+  </si>
+  <si>
+    <t>100,</t>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+  </si>
+  <si>
+    <t>1888,</t>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+  </si>
+  <si>
+    <t>2888,</t>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+  </si>
+  <si>
+    <t>5888,</t>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次火烧赤壁</t>
+  </si>
+  <si>
+    <t>6888,</t>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+  </si>
+  <si>
+    <t>8888,</t>
+  </si>
+  <si>
+    <t>完成以上所有任务</t>
+  </si>
+  <si>
+    <t>128000,</t>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>累计消耗30万金币</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>商城累计充值6元</t>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>累计消耗300万金币</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>商城累计充值48元</t>
+  </si>
+  <si>
+    <t>8000,</t>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>累计消耗2000万金币</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>商城累计充值198元</t>
+  </si>
+  <si>
+    <t>18888,</t>
+  </si>
+  <si>
+    <t>累计消耗3500万金币</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>累计消耗8000万金币</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>商城累计充值888元</t>
+  </si>
+  <si>
+    <t>12000,</t>
+  </si>
+  <si>
+    <t>累计消耗2亿金币</t>
+  </si>
+  <si>
+    <t>688,</t>
+  </si>
+  <si>
+    <t>累计消耗8亿金币</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>商城累计充值1888元</t>
+  </si>
+  <si>
+    <t>21888,</t>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>商城累计充值5888元</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
+  <si>
+    <t>累计消耗40亿金币</t>
+  </si>
+  <si>
+    <t>商城累计充值10000元</t>
+  </si>
+  <si>
+    <t>48888,</t>
+  </si>
+  <si>
+    <t>累计消耗80亿金币</t>
+  </si>
+  <si>
+    <t>商城累计充值18888元</t>
+  </si>
+  <si>
+    <t>50000,</t>
+  </si>
+  <si>
+    <t>累计消耗200亿金币</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
@@ -511,12 +703,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +726,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -561,8 +760,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +845,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -594,82 +853,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,15 +873,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +936,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -767,13 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +1026,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,79 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,6 +1157,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,22 +1196,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,41 +1244,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1260,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,138 +1272,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,34 +1439,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1582,10 +1796,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1601,62 +1815,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="28">
+      <c r="D3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1664,16 +1878,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28">
+      <c r="D4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1681,16 +1895,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28">
+      <c r="C5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="31">
         <v>4</v>
       </c>
     </row>
@@ -1698,16 +1912,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="28">
+      <c r="C6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1715,16 +1929,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="28">
+      <c r="C7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31">
         <v>6</v>
       </c>
     </row>
@@ -1732,14 +1946,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="35" t="s">
         <v>23</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1750,16 +1964,33 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="31" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +2003,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1786,187 +2017,207 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="24" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" spans="1:7">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="22" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="D1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
-        <v>34</v>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="24">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
-        <v>35</v>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="30">
         <v>0</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="30">
         <v>0</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="31">
         <v>0</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="31">
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <v>0</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>21</v>
+      <c r="B8" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>40</v>
+      <c r="G9" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1982,9 +2233,9 @@
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2013,61 +2264,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2078,27 +2329,27 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -2111,22 +2362,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2134,7 +2385,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="16"/>
+      <c r="P3" s="19"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
@@ -2146,28 +2397,28 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="16"/>
+      <c r="P4" s="19"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
@@ -2179,28 +2430,28 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="16"/>
+      <c r="P5" s="19"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
@@ -2212,28 +2463,28 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="19"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
@@ -2245,28 +2496,28 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -2279,22 +2530,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2306,22 +2557,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2333,22 +2584,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2363,19 +2614,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2387,22 +2638,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2414,22 +2665,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2441,22 +2692,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2468,22 +2719,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2495,22 +2746,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2522,22 +2773,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2549,22 +2800,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2576,22 +2827,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2603,22 +2854,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2633,19 +2884,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2660,26 +2911,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2694,26 +2945,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2728,26 +2979,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2762,26 +3013,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
@@ -2795,26 +3046,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
@@ -2828,26 +3079,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:13">
@@ -2861,26 +3112,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I28" s="20"/>
       <c r="L28" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2894,21 +3145,21 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
       <c r="A30" s="5">
@@ -2921,404 +3172,1043 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:15">
-      <c r="A31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="17"/>
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1000689</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:15">
-      <c r="A32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="17"/>
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1000690</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="20"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:13">
-      <c r="A33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1000691</v>
+      </c>
+      <c r="C33" s="2">
+        <v>88</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="20"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
-      <c r="A34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="17"/>
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1000692</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
-      <c r="A35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="17"/>
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1000693</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
-      <c r="A36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="17"/>
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1000694</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
-      <c r="A37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="1"/>
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1000695</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1000696</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C40" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C41" s="3">
+        <v>600</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>53</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>54</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C47" s="3">
+        <v>19800</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
+        <v>44</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C48" s="3">
+        <v>35000000</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
+        <v>45</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C49" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5">
+        <v>55</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C50" s="3">
+        <v>88800</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="3">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C51" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="3">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C52" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5">
+        <v>56</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C53" s="3">
+        <v>188800</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
+        <v>48</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
+        <v>57</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C55" s="3">
+        <v>588800</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
+        <v>49</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="3">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
+        <v>58</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
+        <v>50</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
+        <v>59</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1888800</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
+        <v>51</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C60" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="13"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="19"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="22"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="19"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="22"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="19"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="22"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="22"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="22"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="22"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="13"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="22"/>
       <c r="L91" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="13"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="22"/>
       <c r="L92" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="13"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="22"/>
       <c r="L93" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="13"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="22"/>
       <c r="L94" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="13"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="22"/>
       <c r="L95" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="13"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="22"/>
       <c r="L96" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="13"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="22"/>
       <c r="L97" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="22"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="22"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="22"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="22"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="22"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="22"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="22"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -771,14 +776,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,150 +820,13 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -972,8 +834,14 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,13 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,19 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,170 +914,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1232,249 +938,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1490,10 +957,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,7 +988,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,10 +1003,10 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1560,62 +1027,19 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1873,19 +1297,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1898,7 +1322,7 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1940,7 +1364,7 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1957,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1974,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1991,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2008,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2025,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2042,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2059,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2076,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2094,22 +1518,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -2121,7 +1544,7 @@
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2144,7 +1567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -2165,7 +1588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -2186,7 +1609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -2205,7 +1628,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -2224,7 +1647,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -2243,7 +1666,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -2262,7 +1685,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2280,7 +1703,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2300,7 +1723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2320,7 +1743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2341,24 +1764,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
@@ -2382,7 +1803,7 @@
     <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:19">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -2441,7 +1862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2474,7 +1895,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2509,7 +1930,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:19">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2542,7 +1963,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2575,7 +1996,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2608,7 +2029,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2642,7 +2063,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2669,7 +2090,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2696,7 +2117,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2723,7 +2144,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2750,7 +2171,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2777,7 +2198,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2804,7 +2225,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2831,7 +2252,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2858,7 +2279,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2885,7 +2306,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2912,7 +2333,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2939,7 +2360,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2966,7 +2387,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2993,7 +2414,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3020,7 +2441,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:15">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3054,7 +2475,7 @@
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3088,7 +2509,7 @@
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3122,7 +2543,7 @@
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:13">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3155,7 +2576,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:13">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3188,7 +2609,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:13">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3221,7 +2642,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:13">
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3254,7 +2675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:9">
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3281,7 +2702,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:9">
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3308,7 +2729,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:15">
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3337,7 +2758,7 @@
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:15">
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3366,7 +2787,7 @@
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:13">
+    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3394,7 +2815,7 @@
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:9">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3421,7 +2842,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:9">
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3448,7 +2869,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:9">
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3475,7 +2896,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:9">
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3502,7 +2923,7 @@
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3528,7 +2949,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3554,7 +2975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3580,7 +3001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -3606,7 +3027,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3632,7 +3053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3658,7 +3079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -3684,7 +3105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -3710,7 +3131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -3736,7 +3157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -3762,7 +3183,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -3788,7 +3209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -3814,7 +3235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -3840,7 +3261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -3866,7 +3287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -3892,7 +3313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -3918,7 +3339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -3944,7 +3365,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -3970,7 +3391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -3996,7 +3417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -4022,7 +3443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -4048,7 +3469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -4074,7 +3495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -4100,12 +3521,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="13">
-        <v>1000703</v>
+        <v>1000704</v>
       </c>
       <c r="C61" s="3">
         <v>3000000</v>
@@ -4126,12 +3547,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="13">
-        <v>1000703</v>
+        <v>1000704</v>
       </c>
       <c r="C62" s="3">
         <v>20000000</v>
@@ -4152,12 +3573,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="13">
-        <v>1000703</v>
+        <v>1000704</v>
       </c>
       <c r="C63" s="3">
         <v>50000000</v>
@@ -4178,115 +3599,115 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="24"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
       <c r="B72" s="24"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
       <c r="B73" s="24"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="24"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="15"/>
       <c r="B75" s="24"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="24"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="24"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="24"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="24"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
       <c r="B81" s="24"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
       <c r="B82" s="24"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
       <c r="B83" s="24"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
       <c r="B84" s="24"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="24"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="24"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
       <c r="B87" s="24"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
       <c r="B88" s="24"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
       <c r="B89" s="24"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
       <c r="B90" s="24"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
       <c r="B91" s="24"/>
       <c r="L91" s="3" t="s">
@@ -4296,7 +3717,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
       <c r="B92" s="24"/>
       <c r="L92" s="3" t="s">
@@ -4306,7 +3727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
       <c r="B93" s="24"/>
       <c r="L93" s="3" t="s">
@@ -4316,7 +3737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
       <c r="B94" s="24"/>
       <c r="L94" s="3" t="s">
@@ -4326,7 +3747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
       <c r="B95" s="24"/>
       <c r="L95" s="3" t="s">
@@ -4336,7 +3757,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
       <c r="B96" s="24"/>
       <c r="L96" s="3" t="s">
@@ -4346,7 +3767,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
       <c r="B97" s="24"/>
       <c r="L97" s="3" t="s">
@@ -4356,49 +3777,49 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
       <c r="B98" s="24"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
       <c r="B99" s="24"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
       <c r="B100" s="24"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="15"/>
       <c r="B101" s="24"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
       <c r="B102" s="24"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
       <c r="B103" s="24"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="15"/>
       <c r="B104" s="24"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="15"/>
       <c r="B105" s="24"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="15"/>
       <c r="B106" s="24"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="15"/>
       <c r="B107" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
   <si>
     <t>index|索引</t>
   </si>
@@ -37,6 +37,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -47,6 +48,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -65,6 +67,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,9 +188,6 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
     <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
@@ -265,6 +266,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,6 +277,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,9 +411,6 @@
     <t>在商城中购买3次998元</t>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
-  </si>
-  <si>
     <t>"4000000","900","肩颈按摩仪"</t>
   </si>
   <si>
@@ -500,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -510,6 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -714,6 +716,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -723,6 +726,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>00万金币</t>
@@ -743,6 +747,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -752,6 +757,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>000万金币</t>
@@ -771,13 +777,398 @@
   </si>
   <si>
     <t>"手帕纸10包",</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次道具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计击杀10条彩金鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次火烧赤壁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜3局</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,64,65,66,67,68,69,70,71,72,73</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,17 +1180,20 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -807,12 +1201,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -829,19 +1225,29 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,12 +1293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +1346,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,23 +1409,33 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,62 +1732,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31">
-        <v>1</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1385,16 +1795,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1402,16 +1812,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>4</v>
       </c>
     </row>
@@ -1419,16 +1829,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>5</v>
       </c>
     </row>
@@ -1436,16 +1846,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>6</v>
       </c>
     </row>
@@ -1453,13 +1863,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E8">
@@ -1473,7 +1883,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -1507,7 +1917,7 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
@@ -1517,8 +1927,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1526,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1540,156 +1984,156 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="25" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C5" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E5" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C6" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C7" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -1701,7 +2145,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1719,8 +2163,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>47</v>
+      <c r="G9" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1739,8 +2183,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>48</v>
+      <c r="G10" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,12 +2203,52 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>49</v>
+      <c r="G11" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1772,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,61 +2289,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,22 +2354,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -1903,22 +2387,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -1938,22 +2422,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -1971,22 +2455,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2004,22 +2488,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2037,22 +2521,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2071,22 +2555,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2098,22 +2582,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2125,22 +2609,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2155,19 +2639,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2179,22 +2663,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2206,22 +2690,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2233,22 +2717,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2260,22 +2744,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2287,22 +2771,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2314,22 +2798,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2341,22 +2825,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2368,22 +2852,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2395,22 +2879,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2425,19 +2909,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2452,26 +2936,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2486,26 +2970,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2520,26 +3004,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2554,26 +3038,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2587,26 +3071,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2620,26 +3104,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2653,26 +3137,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2686,19 +3170,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="22"/>
     </row>
@@ -2713,19 +3197,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="22"/>
     </row>
@@ -2740,19 +3224,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -2769,19 +3253,19 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I32" s="22"/>
       <c r="M32" s="12"/>
@@ -2798,19 +3282,19 @@
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
@@ -2826,19 +3310,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="22"/>
     </row>
@@ -2853,19 +3337,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="22"/>
     </row>
@@ -2880,19 +3364,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="22"/>
     </row>
@@ -2907,19 +3391,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="22"/>
     </row>
@@ -2934,19 +3418,19 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -2960,19 +3444,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -2986,19 +3470,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -3012,19 +3496,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -3038,19 +3522,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3064,19 +3548,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -3090,19 +3574,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -3116,19 +3600,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -3142,19 +3626,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -3168,19 +3652,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -3194,19 +3678,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -3220,19 +3704,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -3246,19 +3730,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -3272,19 +3756,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -3298,19 +3782,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -3324,19 +3808,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -3350,19 +3834,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -3376,19 +3860,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -3402,19 +3886,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -3428,19 +3912,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -3454,19 +3938,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -3480,19 +3964,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -3506,319 +3990,761 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>85</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="40">
         <v>60</v>
       </c>
       <c r="B61" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C61" s="3">
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="40">
         <v>61</v>
       </c>
       <c r="B62" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C62" s="3">
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="40">
         <v>62</v>
       </c>
       <c r="B63" s="13">
-        <v>1000704</v>
+        <v>1000703</v>
       </c>
       <c r="C63" s="3">
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="40">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1000705</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="40">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C65" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="40">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="40">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1000707</v>
+      </c>
+      <c r="C67" s="13">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="40">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1000708</v>
+      </c>
+      <c r="C68" s="13">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="40">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1000709</v>
+      </c>
+      <c r="C69" s="13">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="40">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1000710</v>
+      </c>
+      <c r="C70" s="13">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="40">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1000711</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1000712</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="40">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="40">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C74" s="13">
+        <v>4</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="40">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1000714</v>
+      </c>
+      <c r="C75" s="13">
+        <v>100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="40">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1000715</v>
+      </c>
+      <c r="C76" s="13">
+        <v>100</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="40">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1000716</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="40">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1000717</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="40">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="40">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C80" s="13">
+        <v>4</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="40">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1000719</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="40">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1000720</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="40">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1000721</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="13">
+        <v>3</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="40">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1000722</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40"/>
+    </row>
+    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40"/>
+    </row>
+    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40"/>
+    </row>
+    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40"/>
+    </row>
+    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40"/>
+    </row>
+    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40"/>
+    </row>
+    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40"/>
+      <c r="L91" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40"/>
+      <c r="L92" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="15"/>
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="15"/>
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="15"/>
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="15"/>
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A87" s="15"/>
-      <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A89" s="15"/>
-      <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A90" s="15"/>
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A91" s="15"/>
-      <c r="B91" s="24"/>
-      <c r="L91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M91" s="3" t="s">
+    </row>
+    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40"/>
+      <c r="L93" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40"/>
+      <c r="L94" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="40"/>
+      <c r="L95" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="40"/>
+      <c r="L96" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A92" s="15"/>
-      <c r="B92" s="24"/>
-      <c r="L92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A93" s="15"/>
-      <c r="B93" s="24"/>
-      <c r="L93" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A94" s="15"/>
-      <c r="B94" s="24"/>
-      <c r="L94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="L95" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="L96" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="L97" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="24"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
-      <c r="B100" s="24"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" s="15"/>
-      <c r="B101" s="24"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="15"/>
-      <c r="B102" s="24"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A103" s="15"/>
-      <c r="B103" s="24"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" s="15"/>
-      <c r="B104" s="24"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="24"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A106" s="15"/>
-      <c r="B106" s="24"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A107" s="15"/>
-      <c r="B107" s="24"/>
-    </row>
+    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40"/>
+      <c r="L97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40"/>
+    </row>
+    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40"/>
+    </row>
+    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40"/>
+    </row>
+    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40"/>
+    </row>
+    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40"/>
+    </row>
+    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40"/>
+    </row>
+    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40"/>
+    </row>
+    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40"/>
+    </row>
+    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40"/>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40"/>
+    </row>
+    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2258,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD74"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4591,7 +4591,7 @@
         <v>234</v>
       </c>
       <c r="E83" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="41" t="s">
         <v>237</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="290">
   <si>
     <t>index|索引</t>
   </si>
@@ -101,9 +101,6 @@
     <t>dlyl_bg_1</t>
   </si>
   <si>
-    <t>奖励金币_cjj</t>
-  </si>
-  <si>
     <t>act_lgfl_normal</t>
   </si>
   <si>
@@ -152,12 +149,6 @@
     <t>act_qyzl_cjj</t>
   </si>
   <si>
-    <t>qyzl_bg_1</t>
-  </si>
-  <si>
-    <t>七月赠礼_cjj</t>
-  </si>
-  <si>
     <t>act_xhyl</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
   </si>
   <si>
     <t>task_index|任务们</t>
-  </si>
-  <si>
-    <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
     <t>限时返利--v3_normal</t>
@@ -540,15 +528,9 @@
     <t>100,</t>
   </si>
   <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-  </si>
-  <si>
     <t>1888,</t>
   </si>
   <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-  </si>
-  <si>
     <t>2888,</t>
   </si>
   <si>
@@ -577,9 +559,6 @@
   </si>
   <si>
     <t>128000,</t>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
   </si>
   <si>
     <t>累计消耗10万金币</t>
@@ -768,15 +747,6 @@
   </si>
   <si>
     <t>"prop_xxl_card_chip_2",</t>
-  </si>
-  <si>
-    <t>"美的智能风扇",</t>
-  </si>
-  <si>
-    <t>"不锈钢绞肉机",</t>
-  </si>
-  <si>
-    <t>"手帕纸10包",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
@@ -1161,6 +1131,335 @@
   </si>
   <si>
     <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除88个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAR</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录有礼c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jj</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>byzl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,31,32,33,34,35,36,84,37</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_dlyl_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月赠礼cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出3个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以上所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>85,86,87,88,89,90,91,92,93</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,6 +1613,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1346,7 +1651,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,6 +1741,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1713,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1784,8 +2096,8 @@
       <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>12</v>
+      <c r="D3" s="46" t="s">
+        <v>255</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -1796,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="32">
         <v>3</v>
@@ -1813,13 +2125,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="32">
         <v>4</v>
@@ -1830,13 +2142,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="32">
         <v>5</v>
@@ -1847,13 +2159,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="32">
         <v>6</v>
@@ -1864,13 +2176,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1881,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1898,13 +2210,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>260</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1915,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1932,13 +2244,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1949,16 +2261,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E13">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,25 +2319,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,7 +2358,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,8 +2378,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>41</v>
+      <c r="G3" s="39" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2058,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="31">
         <v>0</v>
@@ -2077,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
@@ -2096,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="31">
         <v>0</v>
@@ -2115,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="32">
         <v>0</v>
@@ -2134,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2152,7 +2481,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2164,15 +2493,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2183,8 +2512,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>47</v>
+      <c r="G10" s="45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2192,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2204,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2224,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2232,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2244,7 +2573,27 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>259</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2259,8 +2608,8 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,61 +2638,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2354,22 +2703,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2387,22 +2736,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2422,22 +2771,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2455,22 +2804,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2488,22 +2837,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2521,22 +2870,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2555,22 +2904,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2582,22 +2931,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2609,22 +2958,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2639,19 +2988,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2663,22 +3012,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2690,22 +3039,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2717,22 +3066,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2744,22 +3093,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2771,22 +3120,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2798,22 +3147,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2825,22 +3174,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2852,22 +3201,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2879,22 +3228,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2909,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2936,26 +3285,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2970,26 +3319,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -3004,26 +3353,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -3038,26 +3387,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3071,26 +3420,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3104,26 +3453,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3137,26 +3486,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3170,19 +3519,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I29" s="22"/>
     </row>
@@ -3197,19 +3546,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I30" s="22"/>
     </row>
@@ -3224,19 +3573,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3253,19 +3602,19 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I32" s="22"/>
       <c r="M32" s="12"/>
@@ -3281,20 +3630,20 @@
       <c r="C33" s="2">
         <v>88</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
+      <c r="D33" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
@@ -3310,19 +3659,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I34" s="22"/>
     </row>
@@ -3337,19 +3686,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I35" s="22"/>
     </row>
@@ -3364,19 +3713,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I36" s="22"/>
     </row>
@@ -3391,19 +3740,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I37" s="22"/>
     </row>
@@ -3415,22 +3764,22 @@
         <v>1000696</v>
       </c>
       <c r="C38" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -3444,19 +3793,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
@@ -3470,19 +3819,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
@@ -3496,19 +3845,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
@@ -3522,19 +3871,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
@@ -3548,19 +3897,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
@@ -3574,19 +3923,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
@@ -3600,19 +3949,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
@@ -3626,19 +3975,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
@@ -3652,19 +4001,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>104</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -3678,19 +4027,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -3704,19 +4053,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -3730,19 +4079,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -3756,19 +4105,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -3782,19 +4131,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -3808,19 +4157,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -3834,19 +4183,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
@@ -3860,19 +4209,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
@@ -3886,19 +4235,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -3912,19 +4261,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -3938,19 +4287,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
@@ -3964,19 +4313,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
@@ -3990,19 +4339,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,19 +4365,19 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,19 +4391,19 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,19 +4417,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4094,19 +4443,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
       </c>
       <c r="F64" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4120,19 +4469,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E65" s="13">
         <v>1</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4146,19 +4495,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E66" s="13">
         <v>2</v>
       </c>
       <c r="F66" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4172,19 +4521,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E67" s="13">
         <v>1</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4198,19 +4547,19 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4224,19 +4573,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4250,19 +4599,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4276,19 +4625,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4302,19 +4651,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4328,19 +4677,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E73" s="13">
         <v>1</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4354,19 +4703,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4380,19 +4729,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="E75" s="13">
-        <v>1</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="G75" s="41" t="s">
-        <v>238</v>
-      </c>
       <c r="H75" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4406,19 +4755,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G76" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" s="41" t="s">
         <v>245</v>
-      </c>
-      <c r="H76" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4432,19 +4781,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4458,19 +4807,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="G78" s="41" t="s">
-        <v>247</v>
-      </c>
       <c r="H78" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4484,19 +4833,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4510,22 +4859,22 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -4536,22 +4885,22 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G81" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="H81" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -4562,22 +4911,22 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -4588,22 +4937,22 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E83" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -4614,138 +4963,326 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="40"/>
-    </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40"/>
-    </row>
-    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40"/>
-    </row>
-    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40"/>
-    </row>
-    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40"/>
-    </row>
-    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="40"/>
-    </row>
-    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40"/>
-      <c r="L91" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="40"/>
-      <c r="L92" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M92" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="40"/>
-      <c r="L93" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M93" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="40"/>
-      <c r="L94" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M94" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1000723</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" s="41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40">
+        <v>85</v>
+      </c>
+      <c r="B86" s="47">
+        <v>1000724</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="13">
+        <v>1</v>
+      </c>
+      <c r="F86" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H86" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40">
+        <v>86</v>
+      </c>
+      <c r="B87" s="47">
+        <v>1000725</v>
+      </c>
+      <c r="C87" s="13">
+        <v>88</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40">
+        <v>87</v>
+      </c>
+      <c r="B88" s="47">
+        <v>1000726</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40">
+        <v>88</v>
+      </c>
+      <c r="B89" s="47">
+        <v>1000727</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="13">
+        <v>1</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40">
+        <v>89</v>
+      </c>
+      <c r="B90" s="47">
+        <v>1000728</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H90" s="41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40">
+        <v>90</v>
+      </c>
+      <c r="B91" s="47">
+        <v>1000729</v>
+      </c>
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="13">
+        <v>1</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40">
+        <v>91</v>
+      </c>
+      <c r="B92" s="47">
+        <v>1000730</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G92" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="H92" s="41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40">
+        <v>92</v>
+      </c>
+      <c r="B93" s="47">
+        <v>1000731</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40">
+        <v>93</v>
+      </c>
+      <c r="B94" s="47">
+        <v>1000732</v>
+      </c>
+      <c r="C94" s="13">
+        <v>8</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40"/>
-      <c r="L95" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M95" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40"/>
-      <c r="L96" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M96" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="40"/>
-      <c r="L97" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M97" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="40"/>
     </row>
-    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="40"/>
     </row>
-    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="40"/>
     </row>
-    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="40"/>
     </row>
-    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="40"/>
     </row>
-    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40"/>
     </row>
-    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="40"/>
     </row>
-    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="40"/>
     </row>
-    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40"/>
     </row>
-    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40"/>
     </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,9 +555,6 @@
     <t>8888,</t>
   </si>
   <si>
-    <t>完成以上所有任务</t>
-  </si>
-  <si>
     <t>128000,</t>
   </si>
   <si>
@@ -1214,10 +1211,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30,31,32,33,34,35,36,84,37</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>act_dlyl_nor</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1267,10 +1260,6 @@
   </si>
   <si>
     <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以上所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1459,7 +1448,19 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>85,86,87,88,89,90,91,92,93</t>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,30,31,32,33,34,35,36,84</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>93,85,86,87,88,89,90,91,92</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2097,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2213,10 +2214,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2244,13 +2245,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2261,13 +2262,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2278,13 +2279,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C14" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>259</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>261</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2302,7 +2303,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2359,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,7 +2380,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="39" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2553,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2561,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2573,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2581,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2593,13 +2594,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2608,8 +2609,8 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3325,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>104</v>
@@ -3585,7 +3586,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3631,7 +3632,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3767,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3776,10 +3777,10 @@
         <v>138</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -3793,7 +3794,7 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -3802,7 +3803,7 @@
         <v>138</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>80</v>
@@ -3819,7 +3820,7 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -3828,7 +3829,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>80</v>
@@ -3845,13 +3846,13 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>143</v>
@@ -3871,16 +3872,16 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>80</v>
@@ -3897,16 +3898,16 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>80</v>
@@ -3923,16 +3924,16 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>100</v>
@@ -3949,16 +3950,16 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>80</v>
@@ -3975,16 +3976,16 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>80</v>
@@ -4001,19 +4002,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4027,16 +4028,16 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>80</v>
@@ -4053,16 +4054,16 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>80</v>
@@ -4079,16 +4080,16 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>100</v>
@@ -4105,16 +4106,16 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>80</v>
@@ -4131,16 +4132,16 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>80</v>
@@ -4157,16 +4158,16 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>100</v>
@@ -4183,16 +4184,16 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>80</v>
@@ -4209,16 +4210,16 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>100</v>
@@ -4235,13 +4236,13 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>141</v>
@@ -4261,19 +4262,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -4287,16 +4288,16 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>80</v>
@@ -4313,16 +4314,16 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>100</v>
@@ -4339,19 +4340,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4365,16 +4366,16 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>68</v>
@@ -4391,13 +4392,13 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>84</v>
@@ -4417,19 +4418,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4443,19 +4444,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
       </c>
       <c r="F64" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="41" t="s">
-        <v>228</v>
-      </c>
       <c r="H64" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4469,19 +4470,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E65" s="13">
         <v>1</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4495,19 +4496,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" s="13">
         <v>2</v>
       </c>
       <c r="F66" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="G66" s="41" t="s">
-        <v>228</v>
-      </c>
       <c r="H66" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4521,19 +4522,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E67" s="13">
         <v>1</v>
       </c>
       <c r="F67" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4547,19 +4548,19 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4573,19 +4574,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4599,19 +4600,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4625,19 +4626,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="G71" s="41" t="s">
-        <v>228</v>
-      </c>
       <c r="H71" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4651,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4677,19 +4678,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E73" s="13">
         <v>1</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H73" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4703,19 +4704,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="13">
         <v>2</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H74" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4729,19 +4730,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="F75" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="G75" s="41" t="s">
-        <v>228</v>
-      </c>
       <c r="H75" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4755,19 +4756,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4781,19 +4782,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4807,19 +4808,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4833,19 +4834,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4859,19 +4860,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4885,19 +4886,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4911,19 +4912,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4937,19 +4938,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4963,19 +4964,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4989,19 +4990,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="F85" s="41" t="s">
+      <c r="G85" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="G85" s="41" t="s">
-        <v>253</v>
-      </c>
       <c r="H85" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5015,19 +5016,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5041,19 +5042,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="F87" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5067,19 +5068,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5093,19 +5094,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5119,19 +5120,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5145,19 +5146,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5171,19 +5172,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5197,19 +5198,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G93" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H93" s="41" t="s">
         <v>279</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5223,19 +5224,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="301">
   <si>
     <t>index|索引</t>
   </si>
@@ -802,10 +802,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1537,6 +1533,14 @@
   </si>
   <si>
     <t>95,64,65,66,67,94,68,69,72,73,63</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2次英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出4次英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2187,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2303,10 +2307,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2351,7 +2355,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>200</v>
@@ -2368,13 +2372,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>253</v>
-      </c>
       <c r="D14" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2391,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2473,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2663,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2671,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2683,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2697,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3415,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>104</v>
@@ -3675,7 +3679,7 @@
         <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
@@ -3721,7 +3725,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3857,7 +3861,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3869,7 +3873,7 @@
         <v>149</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
@@ -4103,7 +4107,7 @@
         <v>167</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
@@ -4363,7 +4367,7 @@
         <v>186</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -4441,7 +4445,7 @@
         <v>191</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -4519,7 +4523,7 @@
         <v>84</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4539,13 +4543,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4565,13 +4569,13 @@
         <v>1</v>
       </c>
       <c r="F65" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4591,13 +4595,13 @@
         <v>2</v>
       </c>
       <c r="F66" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G66" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="50" t="s">
-        <v>224</v>
-      </c>
       <c r="H66" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4611,19 +4615,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4637,19 +4641,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4669,13 +4673,13 @@
         <v>1</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4695,13 +4699,13 @@
         <v>1</v>
       </c>
       <c r="F70" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4721,13 +4725,13 @@
         <v>1</v>
       </c>
       <c r="F71" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="G71" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="H71" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4747,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4767,19 +4771,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
       <c r="F73" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4793,19 +4797,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
       <c r="F74" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4819,19 +4823,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="F75" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G75" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="H75" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4851,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4871,19 +4875,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4897,19 +4901,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4923,19 +4927,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4949,19 +4953,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -4975,19 +4979,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5001,19 +5005,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5027,19 +5031,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5053,19 +5057,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="F84" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5079,19 +5083,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="F85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="F85" s="41" t="s">
+      <c r="G85" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="G85" s="41" t="s">
-        <v>248</v>
-      </c>
       <c r="H85" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5105,19 +5109,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5131,19 +5135,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="F87" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5157,19 +5161,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="F88" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5183,19 +5187,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="F89" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5209,19 +5213,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="F90" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5235,19 +5239,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5261,19 +5265,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="F92" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5287,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5313,19 +5317,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="F94" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5339,19 +5343,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="F95" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G95" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H95" s="41" t="s">
         <v>295</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5365,19 +5369,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="F96" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="326">
   <si>
     <t>index|索引</t>
   </si>
@@ -802,6 +802,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1387,10 +1391,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"no_goto_ui","请先完成任务",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1454,6 +1454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1536,11 +1537,241 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中1万及以上档次召唤出2次英雄</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中1万及以上档次召唤出4次英雄</t>
+    <t>act_lcfl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累充返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值48元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值3000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6,97,98,99,100,101,102,103,104</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2119,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2191,7 +2422,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2307,10 +2538,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2372,16 +2603,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E14">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2393,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,7 +2923,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2688,6 +2936,26 @@
       </c>
       <c r="G14" s="44" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2699,11 +2967,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,25 +2980,25 @@
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="86.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="32.25" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="25.625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="3"/>
+    <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="86.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="32.25" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -2747,49 +3015,52 @@
         <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2805,24 +3076,24 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="M2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="8"/>
+      <c r="J2" s="5"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2838,26 +3109,26 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="21"/>
-      <c r="R3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="21"/>
       <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2873,24 +3144,24 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="21"/>
-      <c r="R4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="21"/>
       <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2906,24 +3177,24 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="21"/>
-      <c r="R5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="21"/>
       <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2939,24 +3210,24 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="21"/>
-      <c r="R6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="21"/>
       <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2972,25 +3243,25 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3006,18 +3277,18 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3033,18 +3304,18 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3060,18 +3331,18 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3087,18 +3358,18 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3114,18 +3385,18 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3141,18 +3412,18 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3168,18 +3439,18 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3195,18 +3466,18 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3222,18 +3493,18 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3249,18 +3520,18 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3276,18 +3547,18 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3303,18 +3574,18 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3330,18 +3601,18 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3357,18 +3628,18 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3384,25 +3655,26 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="L22" s="2" t="s">
+      <c r="J22" s="15"/>
+      <c r="M22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3418,25 +3690,26 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="L23" s="2" t="s">
+      <c r="J23" s="15"/>
+      <c r="M23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3452,25 +3725,26 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="L24" s="12" t="s">
+      <c r="J24" s="15"/>
+      <c r="M24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3486,24 +3760,25 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="L25" s="2" t="s">
+      <c r="J25" s="15"/>
+      <c r="M25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3519,24 +3794,25 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="L26" s="2" t="s">
+      <c r="J26" s="15"/>
+      <c r="M26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3552,24 +3828,25 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="L27" s="2" t="s">
+      <c r="J27" s="15"/>
+      <c r="M27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3585,24 +3862,25 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="L28" s="2" t="s">
+      <c r="J28" s="22"/>
+      <c r="M28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3618,18 +3896,19 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3645,18 +3924,19 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3672,20 +3952,21 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="H31" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="M31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="22"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3701,20 +3982,21 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="M32" s="12"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="22"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3725,24 +4007,25 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="22"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3758,18 +4041,19 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3785,18 +4069,19 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3812,18 +4097,19 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="H36" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3839,18 +4125,19 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="H37" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3866,17 +4153,18 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="I38" s="15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3892,17 +4180,17 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="G39" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3918,17 +4206,17 @@
       <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="G40" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -3944,17 +4232,17 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3970,17 +4258,17 @@
       <c r="E42" s="3">
         <v>3</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3996,17 +4284,17 @@
       <c r="E43" s="3">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -4022,17 +4310,17 @@
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -4048,17 +4336,17 @@
       <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -4074,17 +4362,17 @@
       <c r="E46" s="3">
         <v>6</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -4100,17 +4388,17 @@
       <c r="E47" s="3">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I47" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -4126,17 +4414,17 @@
       <c r="E48" s="3">
         <v>7</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -4152,17 +4440,17 @@
       <c r="E49" s="3">
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -4178,17 +4466,17 @@
       <c r="E50" s="3">
         <v>4</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -4204,17 +4492,17 @@
       <c r="E51" s="3">
         <v>9</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -4230,17 +4518,17 @@
       <c r="E52" s="3">
         <v>10</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -4256,17 +4544,17 @@
       <c r="E53" s="3">
         <v>5</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -4282,17 +4570,17 @@
       <c r="E54" s="3">
         <v>11</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -4308,17 +4596,17 @@
       <c r="E55" s="3">
         <v>6</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -4334,17 +4622,17 @@
       <c r="E56" s="3">
         <v>12</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -4360,17 +4648,17 @@
       <c r="E57" s="3">
         <v>7</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I57" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -4386,17 +4674,17 @@
       <c r="E58" s="3">
         <v>13</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="I58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -4412,17 +4700,17 @@
       <c r="E59" s="3">
         <v>8</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -4438,17 +4726,17 @@
       <c r="E60" s="3">
         <v>14</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -4464,17 +4752,17 @@
       <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="H61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="I61" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -4490,17 +4778,17 @@
       <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="H62" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -4516,17 +4804,17 @@
       <c r="E63" s="3">
         <v>3</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="G63" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="H63" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I63" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -4542,17 +4830,17 @@
       <c r="E64" s="49">
         <v>1</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G64" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="H64" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="H64" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I64" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="48">
         <v>64</v>
       </c>
@@ -4568,17 +4856,17 @@
       <c r="E65" s="49">
         <v>1</v>
       </c>
-      <c r="F65" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G65" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="48">
         <v>65</v>
       </c>
@@ -4594,17 +4882,17 @@
       <c r="E66" s="49">
         <v>2</v>
       </c>
-      <c r="F66" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G66" s="50" t="s">
         <v>223</v>
       </c>
       <c r="H66" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="48">
         <v>66</v>
       </c>
@@ -4620,17 +4908,17 @@
       <c r="E67" s="49">
         <v>1</v>
       </c>
-      <c r="F67" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G67" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+      <c r="I67" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="48">
         <v>67</v>
       </c>
@@ -4646,17 +4934,17 @@
       <c r="E68" s="49">
         <v>1</v>
       </c>
-      <c r="F68" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G68" s="50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="I68" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="48">
         <v>68</v>
       </c>
@@ -4672,17 +4960,17 @@
       <c r="E69" s="49">
         <v>1</v>
       </c>
-      <c r="F69" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G69" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="I69" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="48">
         <v>69</v>
       </c>
@@ -4698,17 +4986,17 @@
       <c r="E70" s="49">
         <v>1</v>
       </c>
-      <c r="F70" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G70" s="50" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="I70" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="40">
         <v>70</v>
       </c>
@@ -4724,17 +5012,17 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G71" s="41" t="s">
         <v>223</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="40">
         <v>71</v>
       </c>
@@ -4750,17 +5038,17 @@
       <c r="E72" s="13">
         <v>1</v>
       </c>
-      <c r="F72" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G72" s="41" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="48">
         <v>72</v>
       </c>
@@ -4771,22 +5059,22 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
-      <c r="F73" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G73" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="49" customFormat="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="I73" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="48">
         <v>73</v>
       </c>
@@ -4797,22 +5085,22 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
-      <c r="F74" s="50" t="s">
-        <v>222</v>
-      </c>
       <c r="G74" s="50" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I74" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="40">
         <v>74</v>
       </c>
@@ -4823,22 +5111,22 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>222</v>
       </c>
       <c r="G75" s="41" t="s">
         <v>223</v>
       </c>
       <c r="H75" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="40">
         <v>75</v>
       </c>
@@ -4854,17 +5142,17 @@
       <c r="E76" s="13">
         <v>1</v>
       </c>
-      <c r="F76" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G76" s="41" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="40">
         <v>76</v>
       </c>
@@ -4875,22 +5163,22 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G77" s="41" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="40">
         <v>77</v>
       </c>
@@ -4901,22 +5189,22 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G78" s="41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="40">
         <v>78</v>
       </c>
@@ -4927,22 +5215,22 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
-      <c r="F79" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G79" s="41" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="40">
         <v>79</v>
       </c>
@@ -4953,22 +5241,22 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
-      <c r="F80" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G80" s="41" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="I80" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="40">
         <v>80</v>
       </c>
@@ -4979,22 +5267,22 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G81" s="41" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="40">
         <v>81</v>
       </c>
@@ -5005,22 +5293,22 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G82" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="I82" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="40">
         <v>82</v>
       </c>
@@ -5031,22 +5319,22 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
-      <c r="F83" s="41" t="s">
-        <v>222</v>
-      </c>
       <c r="G83" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+      <c r="I83" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="40">
         <v>83</v>
       </c>
@@ -5057,22 +5345,22 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="G84" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="G84" s="41" t="s">
-        <v>235</v>
-      </c>
       <c r="H84" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="I84" s="41" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -5083,22 +5371,22 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="G85" s="41" t="s">
         <v>247</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+      <c r="I85" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="40">
         <v>85</v>
       </c>
@@ -5109,22 +5397,22 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
-      <c r="F86" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G86" s="41" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H86" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I86" s="41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="40">
         <v>86</v>
       </c>
@@ -5135,22 +5423,22 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
-      <c r="F87" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G87" s="41" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H87" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="40">
         <v>87</v>
       </c>
@@ -5161,22 +5449,22 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
-      <c r="F88" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G88" s="41" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H88" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="I88" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="40">
         <v>88</v>
       </c>
@@ -5187,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G89" s="41" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H89" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="I89" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="40">
         <v>89</v>
       </c>
@@ -5213,22 +5501,22 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G90" s="41" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H90" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="I90" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="40">
         <v>90</v>
       </c>
@@ -5239,22 +5527,22 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
-      <c r="F91" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G91" s="41" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="H91" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="40">
         <v>91</v>
       </c>
@@ -5265,22 +5553,22 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
-      <c r="F92" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G92" s="41" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="H92" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="I92" s="41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="40">
         <v>92</v>
       </c>
@@ -5291,22 +5579,22 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
-      <c r="F93" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G93" s="41" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+      <c r="I93" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="40">
         <v>93</v>
       </c>
@@ -5322,17 +5610,17 @@
       <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="41" t="s">
-        <v>246</v>
-      </c>
       <c r="G94" s="41" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="H94" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="I94" s="41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="40">
         <v>94</v>
       </c>
@@ -5348,17 +5636,17 @@
       <c r="E95" s="13">
         <v>1</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="G95" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="H95" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="H95" s="41" t="s">
+      <c r="I95" s="41" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -5374,52 +5662,286 @@
       <c r="E96" s="13">
         <v>1</v>
       </c>
-      <c r="F96" s="41" t="s">
+      <c r="G96" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="H96" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="I96" s="41" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="40"/>
-    </row>
-    <row r="98" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="40"/>
-    </row>
-    <row r="99" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="40"/>
-    </row>
-    <row r="100" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="40"/>
-    </row>
-    <row r="101" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="40"/>
-    </row>
-    <row r="102" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="40"/>
-    </row>
-    <row r="103" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="40"/>
-    </row>
-    <row r="104" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="40"/>
-    </row>
-    <row r="105" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="40"/>
-    </row>
-    <row r="106" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40">
+        <v>96</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C97" s="13">
+        <v>10</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I97" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C98" s="13">
+        <v>48</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" s="13">
+        <v>2</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I98" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C99" s="13">
+        <v>198</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" s="13">
+        <v>3</v>
+      </c>
+      <c r="F99" s="13">
+        <v>1</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I99" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C100" s="13">
+        <v>500</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="13">
+        <v>4</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H100" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I100" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C101" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" s="13">
+        <v>5</v>
+      </c>
+      <c r="F101" s="13">
+        <v>1</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="I101" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C102" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="13">
+        <v>6</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E103" s="13">
+        <v>7</v>
+      </c>
+      <c r="F103" s="13">
+        <v>1</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H103" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="I103" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C104" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E104" s="13">
+        <v>8</v>
+      </c>
+      <c r="F104" s="13">
+        <v>1</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H104" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="I104" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1000737</v>
+      </c>
+      <c r="C105" s="13">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="13">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13">
+        <v>1</v>
+      </c>
+      <c r="G105" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="H105" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="40"/>
     </row>
-    <row r="107" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="40"/>
     </row>
-    <row r="108" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="403">
   <si>
     <t>index|索引</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
-  </si>
-  <si>
-    <t>60,61,62</t>
   </si>
   <si>
     <t>id|</t>
@@ -1419,14 +1416,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>37,30,31,32,33,34,35,36,84</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>93,85,86,87,88,89,90,91,92</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1525,75 +1514,775 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,64,65,66,67,94,68,69,72,73,63</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lcfl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累充返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值48元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值3000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"no_goto_ui","请先完成任务",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>100,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>95,64,65,66,67,94,68,69,72,73,63</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lcfl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累充返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值48元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值3000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1609,13 +2298,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1626,13 +2315,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -1643,13 +2332,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,123,124,125,126,127,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -1660,13 +2385,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -1677,13 +2402,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -1694,13 +2423,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -1711,67 +2440,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6,97,98,99,100,101,102,103,104</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,131,132,133,134,135,136,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1969,7 +2655,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2759,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2350,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2422,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -2538,10 +3225,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -2569,13 +3256,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2586,13 +3273,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2603,13 +3290,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>253</v>
-      </c>
       <c r="D14" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -2620,17 +3307,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2643,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +3345,7 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="65.625" style="25" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2700,7 +3390,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2720,8 +3410,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="39" t="s">
-        <v>282</v>
+      <c r="G3" s="51" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2838,7 +3528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2874,8 +3564,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>44</v>
+      <c r="G11" s="44" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2883,10 +3573,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2895,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2903,10 +3593,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2915,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2923,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2935,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2943,7 +3633,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2955,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2967,11 +3657,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,64 +3690,64 @@
   <sheetData>
     <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3068,22 +3758,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="J2" s="5"/>
       <c r="N2" s="8"/>
@@ -3101,22 +3791,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
@@ -3136,22 +3826,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="8"/>
@@ -3169,22 +3859,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
@@ -3202,22 +3892,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="8"/>
@@ -3235,22 +3925,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8"/>
@@ -3269,22 +3959,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -3296,22 +3986,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -3323,22 +4013,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -3353,19 +4043,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -3377,22 +4067,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -3404,22 +4094,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -3431,22 +4121,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -3458,22 +4148,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -3485,22 +4175,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -3512,22 +4202,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -3539,22 +4229,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -3566,22 +4256,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -3593,22 +4283,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -3623,19 +4313,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -3650,27 +4340,27 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="J22" s="15"/>
       <c r="M22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="P22" s="12"/>
     </row>
@@ -3685,27 +4375,27 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="15"/>
       <c r="M23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="P23" s="12"/>
     </row>
@@ -3720,27 +4410,27 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="15"/>
       <c r="M24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="P24" s="12"/>
     </row>
@@ -3755,27 +4445,27 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="15"/>
       <c r="M25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3789,27 +4479,27 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" s="15"/>
       <c r="M26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3823,27 +4513,27 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="15"/>
       <c r="M27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3857,27 +4547,27 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="I28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="22"/>
       <c r="M28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3891,20 +4581,20 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="22"/>
     </row>
@@ -3919,20 +4609,20 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="22"/>
     </row>
@@ -3947,20 +4637,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J31" s="22"/>
       <c r="N31" s="12"/>
@@ -3977,20 +4667,20 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" s="22"/>
       <c r="N32" s="12"/>
@@ -4007,20 +4697,20 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" s="22"/>
       <c r="N33" s="12"/>
@@ -4036,20 +4726,20 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="22"/>
     </row>
@@ -4064,20 +4754,20 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="22"/>
     </row>
@@ -4092,20 +4782,20 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="22"/>
     </row>
@@ -4120,20 +4810,20 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" s="22"/>
     </row>
@@ -4148,20 +4838,20 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4175,19 +4865,19 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="I39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4201,19 +4891,19 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -4227,19 +4917,19 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -4253,19 +4943,19 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -4279,19 +4969,19 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4305,19 +4995,19 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -4331,19 +5021,19 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -4357,19 +5047,19 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -4383,19 +5073,19 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -4409,19 +5099,19 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -4435,19 +5125,19 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -4461,19 +5151,19 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -4487,19 +5177,19 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -4513,19 +5203,19 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -4539,19 +5229,19 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -4565,19 +5255,19 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -4591,19 +5281,19 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -4617,19 +5307,19 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -4643,19 +5333,19 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -4669,19 +5359,19 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -4695,19 +5385,19 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -4721,19 +5411,19 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4747,19 +5437,19 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="H61" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="I61" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4773,19 +5463,19 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4799,19 +5489,19 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4825,19 +5515,19 @@
         <v>1</v>
       </c>
       <c r="D64" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E64" s="49">
         <v>1</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4851,19 +5541,19 @@
         <v>100000</v>
       </c>
       <c r="D65" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E65" s="49">
         <v>1</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4877,19 +5567,19 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E66" s="49">
         <v>2</v>
       </c>
       <c r="G66" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H66" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="H66" s="50" t="s">
-        <v>224</v>
-      </c>
       <c r="I66" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4903,19 +5593,19 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I67" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4929,19 +5619,19 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4955,19 +5645,19 @@
         <v>100</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E69" s="49">
         <v>1</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -4981,19 +5671,19 @@
         <v>100</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E70" s="49">
         <v>1</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5007,19 +5697,19 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="G71" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="H71" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="I71" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5033,19 +5723,19 @@
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H72" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5059,19 +5749,19 @@
         <v>2</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E73" s="49">
         <v>1</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5085,19 +5775,19 @@
         <v>4</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" s="49">
         <v>2</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5111,19 +5801,19 @@
         <v>100</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E75" s="13">
         <v>1</v>
       </c>
       <c r="G75" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="H75" s="41" t="s">
-        <v>224</v>
-      </c>
       <c r="I75" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5137,19 +5827,19 @@
         <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E76" s="13">
         <v>1</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H76" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5163,19 +5853,19 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E77" s="13">
         <v>1</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H77" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5189,19 +5879,19 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
       <c r="G78" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5215,19 +5905,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
       </c>
       <c r="G79" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H79" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5241,19 +5931,19 @@
         <v>4</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E80" s="13">
         <v>2</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H80" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5267,19 +5957,19 @@
         <v>1</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5293,19 +5983,19 @@
         <v>1</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5319,19 +6009,19 @@
         <v>3</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E83" s="13">
         <v>3</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5345,19 +6035,19 @@
         <v>1</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5371,19 +6061,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
+      <c r="H85" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="41" t="s">
-        <v>248</v>
-      </c>
       <c r="I85" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5397,19 +6087,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5423,19 +6113,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5449,19 +6139,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5475,19 +6165,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5501,19 +6191,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5527,19 +6217,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5553,19 +6243,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5579,19 +6269,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5605,19 +6295,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5631,19 +6321,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="G95" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="E95" s="13">
-        <v>1</v>
-      </c>
-      <c r="G95" s="41" t="s">
+      <c r="H95" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>292</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5657,19 +6347,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="G96" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="E96" s="13">
-        <v>1</v>
-      </c>
-      <c r="G96" s="41" t="s">
+      <c r="H96" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="H96" s="41" t="s">
-        <v>297</v>
-      </c>
       <c r="I96" s="41" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5683,7 +6373,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -5692,13 +6382,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5712,7 +6402,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -5721,13 +6411,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5741,7 +6431,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -5750,13 +6440,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5770,7 +6460,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -5779,13 +6469,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5799,7 +6489,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -5808,13 +6498,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H101" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I101" s="41" t="s">
         <v>318</v>
-      </c>
-      <c r="I101" s="41" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5828,7 +6518,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -5837,13 +6527,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5857,7 +6547,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -5866,13 +6556,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5886,7 +6576,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -5895,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5915,7 +6605,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -5924,24 +6614,882 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="H105" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="I105" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40">
+        <v>105</v>
+      </c>
+      <c r="B106" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C106" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H106" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="I106" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107" s="13">
+        <v>2</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="H107" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="I107" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="40">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C108" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" s="13">
+        <v>3</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H108" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="I108" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="40">
+        <v>108</v>
+      </c>
+      <c r="B109" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C109" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="D109" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="I105" s="41" t="s">
+      <c r="E109" s="13">
+        <v>4</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="I109" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="40">
+        <v>109</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C110" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="40"/>
-    </row>
-    <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="40"/>
-    </row>
-    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E110" s="13">
+        <v>5</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H110" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="I110" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="40">
+        <v>110</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C111" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E111" s="3">
+        <v>6</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="I111" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="40">
+        <v>111</v>
+      </c>
+      <c r="B112" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C112" s="3">
+        <v>300000000</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="3">
+        <v>7</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H112" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="I112" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="40">
+        <v>112</v>
+      </c>
+      <c r="B113" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C113" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E113" s="3">
+        <v>8</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="I113" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="40">
+        <v>113</v>
+      </c>
+      <c r="B114" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E114" s="3">
+        <v>9</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H114" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I114" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="40">
+        <v>114</v>
+      </c>
+      <c r="B115" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H115" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="I115" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="40">
+        <v>115</v>
+      </c>
+      <c r="B116" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="3">
+        <v>11</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H116" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I116" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="40">
+        <v>116</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1000738</v>
+      </c>
+      <c r="C117" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" s="3">
+        <v>12</v>
+      </c>
+      <c r="G117" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="I117" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="40">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C118" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D118" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="E118" s="3">
+        <v>10</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="H118" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="I118" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="40">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C119" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="E119" s="3">
+        <v>11</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H119" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="I119" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="40">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1000737</v>
+      </c>
+      <c r="C120" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="3">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="H120" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="I120" s="42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="40">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1000739</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="40">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1000740</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="40">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H123" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="I123" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="40">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C124" s="3">
+        <v>20</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H124" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="I124" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="40">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C125" s="3">
+        <v>50</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="3">
+        <v>3</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H125" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="I125" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="40">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1000741</v>
+      </c>
+      <c r="C126" s="3">
+        <v>100</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="E126" s="3">
+        <v>4</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H126" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="I126" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="40">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1000742</v>
+      </c>
+      <c r="C127" s="3">
+        <v>10</v>
+      </c>
+      <c r="D127" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H127" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="I127" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="40">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1000742</v>
+      </c>
+      <c r="C128" s="3">
+        <v>20</v>
+      </c>
+      <c r="D128" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="E128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="I128" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="40">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1000743</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="I129" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="40">
+        <v>129</v>
+      </c>
+      <c r="B130" s="13">
+        <v>1000744</v>
+      </c>
+      <c r="C130" s="3">
+        <v>8</v>
+      </c>
+      <c r="D130" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="40">
+        <v>130</v>
+      </c>
+      <c r="B131" s="13">
+        <v>1000745</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
+      </c>
+      <c r="D131" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="40">
+        <v>131</v>
+      </c>
+      <c r="B132" s="13">
+        <v>1000746</v>
+      </c>
+      <c r="C132" s="3">
+        <v>20</v>
+      </c>
+      <c r="D132" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H132" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="I132" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="40">
+        <v>132</v>
+      </c>
+      <c r="B133" s="13">
+        <v>1000747</v>
+      </c>
+      <c r="C133" s="3">
+        <v>20</v>
+      </c>
+      <c r="D133" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H133" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="I133" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="40">
+        <v>133</v>
+      </c>
+      <c r="B134" s="13">
+        <v>1000748</v>
+      </c>
+      <c r="C134" s="3">
+        <v>20</v>
+      </c>
+      <c r="D134" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H134" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="I134" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="40">
+        <v>134</v>
+      </c>
+      <c r="B135" s="13">
+        <v>1000749</v>
+      </c>
+      <c r="C135" s="3">
+        <v>20</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H135" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="I135" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="40">
+        <v>135</v>
+      </c>
+      <c r="B136" s="13">
+        <v>1000750</v>
+      </c>
+      <c r="C136" s="3">
+        <v>20</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H136" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="I136" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="40">
+        <v>136</v>
+      </c>
+      <c r="B137" s="13">
+        <v>1000751</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H137" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="I137" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="40">
+        <v>137</v>
+      </c>
+      <c r="B138" s="13">
+        <v>1000752</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H138" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="I138" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -1574,12 +1574,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1590,13 +1586,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -1613,7 +1609,7 @@
   </si>
   <si>
     <r>
-      <t>5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1624,13 +1620,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1641,13 +1637,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1658,13 +1710,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1675,13 +1735,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1698,7 +1762,7 @@
   </si>
   <si>
     <r>
-      <t>6</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1709,13 +1773,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1731,64 +1795,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗100万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗500万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗3亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗20亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗30亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗50亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1799,25 +1807,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>jing_bi",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1828,17 +1824,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1866,7 +1858,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
+      <t>500,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1883,13 +1875,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1900,13 +1892,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1917,13 +1909,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1934,13 +1962,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1951,13 +1979,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1968,13 +1996,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -1985,13 +2057,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2002,49 +2074,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值30000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值50000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2055,13 +2091,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2072,13 +2108,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2089,57 +2137,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2150,13 +2154,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2167,13 +2171,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -2184,13 +2188,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -2201,25 +2205,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -2230,13 +2222,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>88,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2252,8 +2244,44 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,123,124,125,126,127,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2264,13 +2292,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2281,13 +2309,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2298,13 +2330,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2315,136 +2347,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,123,124,125,126,127,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>0次</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在水浒消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在三国消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>在三国消消乐中触发1次草船借箭</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2458,6 +2365,34 @@
   </si>
   <si>
     <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3333,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3411,7 +3346,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3565,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3659,9 +3594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3705,7 +3640,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -6099,7 +6034,7 @@
         <v>264</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6301,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H94" s="41" t="s">
         <v>272</v>
@@ -6359,7 +6294,7 @@
         <v>293</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6382,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6411,13 +6346,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="H98" s="41" t="s">
-        <v>310</v>
-      </c>
       <c r="I98" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6440,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6469,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H100" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="I100" s="41" t="s">
         <v>312</v>
-      </c>
-      <c r="I100" s="41" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6498,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6527,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6556,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6585,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6605,7 +6540,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -6614,10 +6549,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>241</v>
@@ -6634,19 +6569,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6660,19 +6595,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6686,19 +6621,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6712,19 +6647,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H109" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="H109" s="41" t="s">
-        <v>340</v>
-      </c>
       <c r="I109" s="41" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6738,19 +6673,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H110" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="I110" s="41" t="s">
         <v>341</v>
-      </c>
-      <c r="I110" s="41" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -6764,19 +6699,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="H111" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="H111" s="42" t="s">
+      <c r="I111" s="41" t="s">
         <v>342</v>
-      </c>
-      <c r="I111" s="41" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -6790,19 +6725,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -6816,19 +6751,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -6842,19 +6777,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -6868,19 +6803,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -6894,19 +6829,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -6920,19 +6855,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6946,7 +6881,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -6955,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -6975,7 +6910,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -6984,13 +6919,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -7004,7 +6939,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -7013,13 +6948,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -7033,19 +6968,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -7059,19 +6994,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="I122" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7085,19 +7020,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H123" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H123" s="42" t="s">
-        <v>378</v>
-      </c>
       <c r="I123" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7111,19 +7046,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H124" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I124" s="42" t="s">
         <v>379</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7137,19 +7072,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7163,19 +7098,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7189,19 +7124,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H127" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H127" s="42" t="s">
-        <v>382</v>
-      </c>
       <c r="I127" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7215,19 +7150,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7241,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H129" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H129" s="42" t="s">
-        <v>384</v>
-      </c>
       <c r="I129" s="42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7267,19 +7202,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7293,19 +7228,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="I131" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7319,19 +7254,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7345,19 +7280,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H133" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I133" s="42" t="s">
         <v>379</v>
-      </c>
-      <c r="I133" s="42" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7371,19 +7306,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7397,19 +7332,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7423,19 +7358,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7449,19 +7384,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7475,19 +7410,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
   <si>
     <t>index|索引</t>
   </si>
@@ -1079,6 +1079,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1570,6 +1574,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -1588,6 +1613,23 @@
   </si>
   <si>
     <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>8</t>
     </r>
     <r>
@@ -1605,6 +1647,23 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>3</t>
     </r>
     <r>
@@ -1622,6 +1681,23 @@
   </si>
   <si>
     <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>6</t>
     </r>
     <r>
@@ -1638,6 +1714,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"shop_bay","jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1719,6 +1812,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -2264,10 +2361,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>120,121,122,123,124,125,126,127,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>完成以下所有任务</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2356,43 +2449,391 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>129,130,131,132,133,134,135,136,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52,153,154,155</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2479,7 +2920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2558,6 +2999,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2590,7 +3037,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2695,6 +3142,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2975,7 +3430,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -3160,10 +3615,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3208,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>199</v>
@@ -3225,13 +3680,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3242,13 +3697,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3268,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3346,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3357,16 +3812,18 @@
         <v>38</v>
       </c>
       <c r="C4" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="30"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="55" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
@@ -3376,16 +3833,18 @@
         <v>39</v>
       </c>
       <c r="C5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="55" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
@@ -3395,16 +3854,18 @@
         <v>40</v>
       </c>
       <c r="C6" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="55" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -3414,16 +3875,18 @@
         <v>41</v>
       </c>
       <c r="C7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="55" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3500,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3520,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3540,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3548,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3560,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3568,7 +4031,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3580,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3592,11 +4055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T138"/>
+  <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="A1:T168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3640,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -4585,7 +5048,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J31" s="22"/>
       <c r="N31" s="12"/>
@@ -4632,7 +5095,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -4773,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4786,7 +5249,7 @@
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4858,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>142</v>
@@ -5020,7 +5483,7 @@
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -5280,7 +5743,7 @@
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -5358,7 +5821,7 @@
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5459,10 +5922,10 @@
         <v>222</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5488,7 +5951,7 @@
         <v>224</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5514,7 +5977,7 @@
         <v>223</v>
       </c>
       <c r="I66" s="50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5528,7 +5991,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
@@ -5554,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
@@ -5566,7 +6029,7 @@
         <v>226</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5592,7 +6055,7 @@
         <v>227</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5618,7 +6081,7 @@
         <v>228</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5644,7 +6107,7 @@
         <v>223</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5670,7 +6133,7 @@
         <v>229</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5696,7 +6159,7 @@
         <v>227</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5722,7 +6185,7 @@
         <v>229</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5748,7 +6211,7 @@
         <v>223</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5774,7 +6237,7 @@
         <v>230</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5800,7 +6263,7 @@
         <v>231</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5826,7 +6289,7 @@
         <v>232</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5852,7 +6315,7 @@
         <v>233</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5878,7 +6341,7 @@
         <v>234</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5904,7 +6367,7 @@
         <v>230</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5930,7 +6393,7 @@
         <v>235</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5956,7 +6419,7 @@
         <v>235</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5976,13 +6439,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>235</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5996,19 +6459,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E85" s="13">
         <v>1</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I85" s="41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6022,19 +6485,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6048,19 +6511,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6074,19 +6537,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6100,19 +6563,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6126,19 +6589,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6152,19 +6615,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6178,19 +6641,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6204,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6230,19 +6693,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6256,19 +6719,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I95" s="41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6282,19 +6745,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6308,7 +6771,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -6317,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6337,7 +6800,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -6346,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6366,7 +6829,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -6375,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>397</v>
+        <v>311</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6395,7 +6858,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -6404,13 +6867,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6424,7 +6887,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -6433,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6453,7 +6916,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -6462,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6482,7 +6945,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -6491,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6511,7 +6974,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -6520,13 +6983,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6540,7 +7003,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -6549,13 +7012,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6569,19 +7032,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6595,19 +7058,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6621,19 +7084,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6647,19 +7110,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6673,19 +7136,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -6699,19 +7162,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -6725,19 +7188,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -6751,19 +7214,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -6777,19 +7240,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -6803,19 +7266,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -6829,19 +7292,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -6855,19 +7318,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6881,7 +7344,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -6890,13 +7353,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -6910,7 +7373,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -6919,13 +7382,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -6939,7 +7402,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -6948,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -6968,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -6994,19 +7457,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7020,19 +7483,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="H123" s="42" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7046,19 +7509,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7072,19 +7535,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7098,19 +7561,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7124,19 +7587,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7150,19 +7613,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7176,19 +7639,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7202,19 +7665,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7228,19 +7691,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7254,19 +7717,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H132" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="I132" s="42" t="s">
         <v>386</v>
-      </c>
-      <c r="E132" s="3">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H132" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="I132" s="42" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7280,19 +7743,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7306,19 +7769,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7332,19 +7795,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7358,19 +7821,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7384,19 +7847,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7410,19 +7873,799 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>355</v>
+      <c r="G138" s="42" t="s">
+        <v>333</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>382</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="53">
+        <v>138</v>
+      </c>
+      <c r="B139" s="52">
+        <v>1000753</v>
+      </c>
+      <c r="C139" s="52">
+        <v>3</v>
+      </c>
+      <c r="D139" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="E139" s="52">
+        <v>1</v>
+      </c>
+      <c r="G139" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H139" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="I139" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="53">
+        <v>139</v>
+      </c>
+      <c r="B140" s="52">
+        <v>1000754</v>
+      </c>
+      <c r="C140" s="52">
+        <v>3</v>
+      </c>
+      <c r="D140" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E140" s="52">
+        <v>1</v>
+      </c>
+      <c r="G140" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H140" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="I140" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="53">
+        <v>140</v>
+      </c>
+      <c r="B141" s="52">
+        <v>1000755</v>
+      </c>
+      <c r="C141" s="52">
+        <v>3</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E141" s="52">
+        <v>1</v>
+      </c>
+      <c r="G141" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H141" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="I141" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="53">
+        <v>141</v>
+      </c>
+      <c r="B142" s="52">
+        <v>1000756</v>
+      </c>
+      <c r="C142" s="52">
+        <v>3</v>
+      </c>
+      <c r="D142" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E142" s="52">
+        <v>1</v>
+      </c>
+      <c r="G142" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H142" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="I142" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="53">
+        <v>142</v>
+      </c>
+      <c r="B143" s="52">
+        <v>1000757</v>
+      </c>
+      <c r="C143" s="52">
+        <v>3</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E143" s="52">
+        <v>1</v>
+      </c>
+      <c r="G143" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H143" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="I143" s="54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="53">
+        <v>143</v>
+      </c>
+      <c r="B144" s="52">
+        <v>1000758</v>
+      </c>
+      <c r="C144" s="52">
+        <v>3</v>
+      </c>
+      <c r="D144" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="E144" s="52">
+        <v>1</v>
+      </c>
+      <c r="G144" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H144" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="I144" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="53">
+        <v>144</v>
+      </c>
+      <c r="B145" s="52">
+        <v>1000759</v>
+      </c>
+      <c r="C145" s="52">
+        <v>3</v>
+      </c>
+      <c r="D145" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" s="52">
+        <v>1</v>
+      </c>
+      <c r="G145" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H145" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I145" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="53">
+        <v>145</v>
+      </c>
+      <c r="B146" s="52">
+        <v>1000760</v>
+      </c>
+      <c r="C146" s="52">
+        <v>3</v>
+      </c>
+      <c r="D146" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" s="52">
+        <v>1</v>
+      </c>
+      <c r="G146" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H146" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="I146" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="53">
+        <v>146</v>
+      </c>
+      <c r="B147" s="52">
+        <v>1000761</v>
+      </c>
+      <c r="C147" s="52">
+        <v>3</v>
+      </c>
+      <c r="D147" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E147" s="52">
+        <v>1</v>
+      </c>
+      <c r="G147" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H147" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="I147" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="53">
+        <v>147</v>
+      </c>
+      <c r="B148" s="52">
+        <v>1000762</v>
+      </c>
+      <c r="C148" s="52">
+        <v>3</v>
+      </c>
+      <c r="D148" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="E148" s="52">
+        <v>1</v>
+      </c>
+      <c r="G148" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H148" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="I148" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="53">
+        <v>148</v>
+      </c>
+      <c r="B149" s="52">
+        <v>1000763</v>
+      </c>
+      <c r="C149" s="52">
+        <v>3</v>
+      </c>
+      <c r="D149" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="E149" s="52">
+        <v>1</v>
+      </c>
+      <c r="G149" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H149" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="I149" s="54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="53">
+        <v>149</v>
+      </c>
+      <c r="B150" s="52">
+        <v>1000764</v>
+      </c>
+      <c r="C150" s="52">
+        <v>3</v>
+      </c>
+      <c r="D150" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E150" s="52">
+        <v>1</v>
+      </c>
+      <c r="G150" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H150" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="I150" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="53">
+        <v>150</v>
+      </c>
+      <c r="B151" s="52">
+        <v>1000765</v>
+      </c>
+      <c r="C151" s="52">
+        <v>3</v>
+      </c>
+      <c r="D151" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E151" s="52">
+        <v>1</v>
+      </c>
+      <c r="G151" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H151" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="I151" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="53">
+        <v>151</v>
+      </c>
+      <c r="B152" s="52">
+        <v>1000766</v>
+      </c>
+      <c r="C152" s="52">
+        <v>3</v>
+      </c>
+      <c r="D152" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E152" s="52">
+        <v>1</v>
+      </c>
+      <c r="G152" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H152" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="I152" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="53">
+        <v>152</v>
+      </c>
+      <c r="B153" s="52">
+        <v>1000767</v>
+      </c>
+      <c r="C153" s="52">
+        <v>3</v>
+      </c>
+      <c r="D153" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="E153" s="52">
+        <v>1</v>
+      </c>
+      <c r="G153" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H153" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="I153" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="53">
+        <v>153</v>
+      </c>
+      <c r="B154" s="52">
+        <v>1000768</v>
+      </c>
+      <c r="C154" s="52">
+        <v>3</v>
+      </c>
+      <c r="D154" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E154" s="52">
+        <v>1</v>
+      </c>
+      <c r="G154" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H154" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I154" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="53">
+        <v>154</v>
+      </c>
+      <c r="B155" s="52">
+        <v>1000769</v>
+      </c>
+      <c r="C155" s="52">
+        <v>3</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="E155" s="52">
+        <v>1</v>
+      </c>
+      <c r="G155" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H155" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="I155" s="54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="53">
+        <v>155</v>
+      </c>
+      <c r="B156" s="52">
+        <v>1000770</v>
+      </c>
+      <c r="C156" s="52">
+        <v>3</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E156" s="52">
+        <v>1</v>
+      </c>
+      <c r="G156" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H156" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="I156" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="53">
+        <v>156</v>
+      </c>
+      <c r="B157" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C157" s="52">
+        <v>3</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157" s="52">
+        <v>1</v>
+      </c>
+      <c r="G157" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H157" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I157" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="53">
+        <v>157</v>
+      </c>
+      <c r="B158" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C158" s="52">
+        <v>10</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="E158" s="52">
+        <v>2</v>
+      </c>
+      <c r="G158" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="H158" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="I158" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="53">
+        <v>158</v>
+      </c>
+      <c r="B159" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C159" s="52">
+        <v>20</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="E159" s="52">
+        <v>3</v>
+      </c>
+      <c r="G159" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="H159" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I159" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="53">
+        <v>159</v>
+      </c>
+      <c r="B160" s="52">
+        <v>1000771</v>
+      </c>
+      <c r="C160" s="52">
+        <v>30</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="E160" s="52">
+        <v>4</v>
+      </c>
+      <c r="G160" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H160" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="53">
+        <v>160</v>
+      </c>
+      <c r="B161" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C161" s="52">
+        <v>10</v>
+      </c>
+      <c r="D161" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" s="52">
+        <v>1</v>
+      </c>
+      <c r="G161" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H161" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="I161" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="53">
+        <v>161</v>
+      </c>
+      <c r="B162" s="52">
+        <v>1000772</v>
+      </c>
+      <c r="C162" s="52">
+        <v>20</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="E162" s="52">
+        <v>2</v>
+      </c>
+      <c r="G162" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H162" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="53">
+        <v>162</v>
+      </c>
+      <c r="B163" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C163" s="52">
+        <v>18</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="E163" s="52">
+        <v>1</v>
+      </c>
+      <c r="G163" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H163" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="53">
+        <v>163</v>
+      </c>
+      <c r="B164" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C164" s="52">
+        <v>48</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="E164" s="52">
+        <v>2</v>
+      </c>
+      <c r="G164" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H164" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="53">
+        <v>164</v>
+      </c>
+      <c r="B165" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C165" s="52">
+        <v>88</v>
+      </c>
+      <c r="D165" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="E165" s="52">
+        <v>3</v>
+      </c>
+      <c r="G165" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H165" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I165" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="53">
+        <v>165</v>
+      </c>
+      <c r="B166" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C166" s="52">
+        <v>128</v>
+      </c>
+      <c r="D166" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E166" s="52">
+        <v>4</v>
+      </c>
+      <c r="G166" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H166" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="I166" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="53">
+        <v>166</v>
+      </c>
+      <c r="B167" s="52">
+        <v>1000773</v>
+      </c>
+      <c r="C167" s="52">
+        <v>188</v>
+      </c>
+      <c r="D167" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="E167" s="52">
+        <v>5</v>
+      </c>
+      <c r="G167" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H167" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="I167" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="53">
+        <v>167</v>
+      </c>
+      <c r="B168" s="52">
+        <v>1000774</v>
+      </c>
+      <c r="C168" s="52">
+        <v>3</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>445</v>
+      </c>
+      <c r="E168" s="52">
+        <v>1</v>
+      </c>
+      <c r="G168" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I168" s="54" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="449">
   <si>
     <t>index|索引</t>
   </si>
@@ -3723,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4057,9 +4057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G163" sqref="A1:T168"/>
+      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8246,7 +8246,7 @@
         <v>422</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="I152" s="54" t="s">
         <v>420</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
   <si>
     <t>index|索引</t>
   </si>
@@ -1079,1761 +1079,1761 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除88个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAR</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录有礼c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jj</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>byzl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_dlyl_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlyl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月赠礼cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录有礼捕鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中任意召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出3个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中触发1次天女散花</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条黄金灯笼鱼</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计在线3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0分钟</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,64,65,66,67,94,68,69,72,73,63</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lcfl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累充返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值48元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值3000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52,153,154,155</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>63,74,75,76,77,78,79,80,81,82,83</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除88个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BAR</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jing_bi",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录有礼c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jj</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>byzl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_dlyl_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlyl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>八月赠礼cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录有礼捕鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录有礼捕鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个BAR</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中任意召唤出1个英雄</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计召唤出3个英雄</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中触发1次天女散花</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计击杀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>条黄金灯笼鱼</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计在线3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0分钟</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,64,65,66,67,94,68,69,72,73,63</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lcfl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>lcfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累充返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值48元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值3000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗100万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗500万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗3亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗20亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗30亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗50亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jing_bi",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值30000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值50000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>88,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水浒消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在三国消消乐中游戏2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在三国消消乐中触发1次草船借箭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1800000,2400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,800000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,40000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,80000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,120000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>138,139,140,141,142</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>52,153,154,155</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,148,149,150,151</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中累计使用3次锁定</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用20次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用30次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中使用3万及以上档次游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8个西瓜</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除48个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除128个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除188个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中触发3次幸运时刻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,156,157,158,159,160,161,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,162,163,164,165,166,167,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,144,145,146</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3499,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -3615,10 +3615,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>199</v>
@@ -3680,13 +3680,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>252</v>
-      </c>
       <c r="D14" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3697,13 +3697,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="38" t="s">
         <v>296</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>297</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4011,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I160" sqref="I160"/>
+      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -5048,7 +5048,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J31" s="22"/>
       <c r="N31" s="12"/>
@@ -5095,7 +5095,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -5249,7 +5249,7 @@
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>142</v>
@@ -5483,7 +5483,7 @@
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -5743,7 +5743,7 @@
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -5821,7 +5821,7 @@
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5922,10 +5922,10 @@
         <v>222</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5951,7 +5951,7 @@
         <v>224</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5977,7 +5977,7 @@
         <v>223</v>
       </c>
       <c r="I66" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5991,7 +5991,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>226</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -6055,7 +6055,7 @@
         <v>227</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -6081,7 +6081,7 @@
         <v>228</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6107,7 +6107,7 @@
         <v>223</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6133,7 +6133,7 @@
         <v>229</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -6159,7 +6159,7 @@
         <v>227</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -6185,7 +6185,7 @@
         <v>229</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6211,7 +6211,7 @@
         <v>223</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6237,7 +6237,7 @@
         <v>230</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6263,7 +6263,7 @@
         <v>231</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6289,7 +6289,7 @@
         <v>232</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6315,7 +6315,7 @@
         <v>233</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6341,7 +6341,7 @@
         <v>234</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6367,7 +6367,7 @@
         <v>230</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6393,7 +6393,7 @@
         <v>235</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6419,7 +6419,7 @@
         <v>235</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6439,13 +6439,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>235</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6459,19 +6459,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
+      <c r="H85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="41" t="s">
-        <v>247</v>
-      </c>
       <c r="I85" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6485,19 +6485,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6511,19 +6511,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6537,19 +6537,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6563,19 +6563,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6589,19 +6589,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6615,19 +6615,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6641,19 +6641,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6667,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6693,19 +6693,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6719,19 +6719,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H95" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>291</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6745,19 +6745,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6771,7 +6771,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -6780,13 +6780,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6800,7 +6800,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -6809,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I98" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6829,7 +6829,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -6838,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6858,7 +6858,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -6867,13 +6867,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6887,7 +6887,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -6896,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6916,7 +6916,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -6925,13 +6925,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6945,7 +6945,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -6954,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6974,7 +6974,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -6983,13 +6983,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7003,7 +7003,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -7012,13 +7012,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7032,19 +7032,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7058,19 +7058,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="H107" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="H107" s="41" t="s">
-        <v>338</v>
-      </c>
       <c r="I107" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7084,19 +7084,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7110,19 +7110,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7136,19 +7136,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -7162,19 +7162,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -7188,19 +7188,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -7214,19 +7214,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -7240,19 +7240,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -7266,19 +7266,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -7292,19 +7292,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -7318,19 +7318,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -7344,7 +7344,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -7353,13 +7353,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -7373,7 +7373,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -7382,13 +7382,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -7402,7 +7402,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -7411,13 +7411,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -7431,19 +7431,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -7457,19 +7457,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7483,19 +7483,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7509,19 +7509,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7535,19 +7535,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7561,19 +7561,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7587,19 +7587,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7613,19 +7613,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7639,19 +7639,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7665,19 +7665,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7691,19 +7691,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7717,19 +7717,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7743,19 +7743,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7769,19 +7769,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7795,19 +7795,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7821,19 +7821,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7847,19 +7847,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7873,19 +7873,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7899,19 +7899,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H139" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="H139" s="54" t="s">
-        <v>410</v>
-      </c>
       <c r="I139" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7925,19 +7925,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E140" s="52">
         <v>1</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7951,19 +7951,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7977,19 +7977,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H142" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8003,19 +8003,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8029,19 +8029,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8055,19 +8055,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E145" s="52">
         <v>1</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H145" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8081,19 +8081,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="52">
+        <v>1</v>
+      </c>
+      <c r="G146" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="E146" s="52">
-        <v>1</v>
-      </c>
-      <c r="G146" s="54" t="s">
-        <v>409</v>
-      </c>
       <c r="H146" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8107,19 +8107,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H147" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="I147" s="54" t="s">
         <v>418</v>
-      </c>
-      <c r="I147" s="54" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8133,19 +8133,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8159,19 +8159,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8185,19 +8185,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8211,19 +8211,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8237,19 +8237,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8263,19 +8263,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8289,19 +8289,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8315,19 +8315,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8341,19 +8341,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8367,19 +8367,19 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8393,19 +8393,19 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I158" s="54" t="s">
-        <v>435</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8419,19 +8419,19 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H159" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I159" s="54" t="s">
-        <v>435</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8445,19 +8445,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8471,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8497,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8523,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8549,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8575,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H165" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8601,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8627,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8653,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -2554,6 +2554,57 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>4</t>
     </r>
     <r>
@@ -2565,8 +2616,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,160000,</t>
-    </r>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2582,7 +2653,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,40000,</t>
+      <t>52,153,154,155</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2599,12 +2670,80 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,80000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -2612,12 +2751,72 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,120000,</t>
-    </r>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2635,205 +2834,6 @@
       </rPr>
       <t>80000,160000,</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>138,139,140,141,142</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>52,153,154,155</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,148,149,150,151</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中累计使用3次锁定</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用20次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用30次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中使用3万及以上档次游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8个西瓜</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除48个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除128个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除188个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中触发3次幸运时刻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,156,157,158,159,160,161,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,162,163,164,165,166,167,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,144,145,146</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
+      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7833,7 +7833,7 @@
         <v>381</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7911,7 +7911,7 @@
         <v>409</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7937,7 +7937,7 @@
         <v>410</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7963,7 +7963,7 @@
         <v>411</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7989,7 +7989,7 @@
         <v>412</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8012,10 +8012,10 @@
         <v>408</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8038,10 +8038,10 @@
         <v>408</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8064,10 +8064,10 @@
         <v>408</v>
       </c>
       <c r="H145" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8090,10 +8090,10 @@
         <v>408</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8116,10 +8116,10 @@
         <v>408</v>
       </c>
       <c r="H147" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I147" s="54" t="s">
         <v>417</v>
-      </c>
-      <c r="I147" s="54" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8139,13 +8139,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>409</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8165,13 +8165,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H149" s="54" t="s">
         <v>410</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8191,13 +8191,13 @@
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H150" s="54" t="s">
         <v>411</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8217,13 +8217,13 @@
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H151" s="54" t="s">
         <v>412</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8243,13 +8243,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8269,13 +8269,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8295,13 +8295,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8321,13 +8321,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8347,13 +8347,13 @@
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8367,13 +8367,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>377</v>
@@ -8393,13 +8393,13 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H158" s="54" t="s">
         <v>378</v>
@@ -8419,13 +8419,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8445,19 +8445,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H160" s="54" t="s">
         <v>380</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8471,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8497,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8523,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H163" s="54" t="s">
         <v>377</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8549,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H164" s="54" t="s">
         <v>378</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8575,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8601,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H166" s="54" t="s">
         <v>380</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8627,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8653,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="451">
   <si>
     <t>index|索引</t>
   </si>
@@ -1570,12 +1570,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1586,13 +1582,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -1609,7 +1605,7 @@
   </si>
   <si>
     <r>
-      <t>5</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1620,13 +1616,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -1637,13 +1633,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cz|是否充值任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗500万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5000万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗3亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗5亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗30亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗50亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1654,13 +1706,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>jing_bi",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1671,13 +1731,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1694,7 +1758,7 @@
   </si>
   <si>
     <r>
-      <t>6</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1705,13 +1769,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>5000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1727,64 +1791,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_cz|是否充值任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗100万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗500万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5000万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗1亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗3亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗5亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗20亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗30亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗50亿金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消耗10万金币</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1795,25 +1803,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>jing_bi",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1824,17 +1820,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1862,7 +1854,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
+      <t>500,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1879,13 +1871,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -1896,13 +1888,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1913,13 +1905,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值10000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值30000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值50000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -1930,13 +1958,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1947,13 +1975,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>0000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1964,13 +1992,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请先完成任务",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -1981,13 +2053,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>10条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -1998,49 +2070,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>105,106,107,108,109,110,111,112,113,114,115,116</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值10000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值30000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值50000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>20条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2051,13 +2087,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>50条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3D捕鱼中累计捕获任意鱼</t>
     </r>
     <r>
       <rPr>
@@ -2068,13 +2104,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>100条</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2085,57 +2133,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请先完成任务",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>88,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2146,13 +2150,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2163,13 +2167,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>20条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -2180,13 +2184,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>50条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3D捕鱼中累计捕获任意鱼</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -2197,25 +2201,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100条</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中使用3万及以上档次游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -2226,13 +2218,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>88,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>888,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2248,8 +2240,40 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成以下所有任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2260,13 +2284,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水浒消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2277,13 +2301,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中游戏20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2294,13 +2322,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在三国消消乐中游戏2</t>
     </r>
     <r>
       <rPr>
@@ -2311,13 +2339,61 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任意一笔充值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次2498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次998元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次498元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次198元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次98元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次15元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次30元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在游戏中累计购买3次50元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2328,45 +2404,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>888,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成以下所有任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中游戏2</t>
+      <t>1800000,2400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2377,13 +2421,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水浒消消乐中游戏2</t>
+      <t>800000,1280000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2394,17 +2438,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在财神消消乐中游戏20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中游戏2</t>
+      <t>800000,800000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -2415,13 +2455,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在三国消消乐中游戏2</t>
+      <t>00000,400000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2432,56 +2472,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在三国消消乐中触发1次草船借箭</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任意一笔充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,117,118,119</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次15元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次30元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次50元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin",</t>
+      <t>800000,160000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2497,13 +2489,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1800000,2400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>00000,40000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2514,13 +2506,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,1280000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>80000,80000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -2531,13 +2523,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,800000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>80000,120000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -2548,13 +2540,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,400000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>80000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>138,139,140,141,142</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -2565,7 +2577,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>800000,160000,</t>
+      <t>52,153,154,155</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2582,13 +2594,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000,40000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>47,148,149,150,151</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
     </r>
     <r>
       <rPr>
@@ -2599,13 +2611,53 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,80000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>D捕鱼中累计使用3次锁定</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用20次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用30次锁定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在西游消消乐中使用3万及以上档次游戏</t>
     </r>
     <r>
       <rPr>
@@ -2616,13 +2668,31 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,120000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6888,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在水果消消乐中累计消除1</t>
     </r>
     <r>
       <rPr>
@@ -2633,91 +2703,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>80000,160000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>138,139,140,141,142</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>52,153,154,155</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47,148,149,150,151</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中累计使用3次锁定</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用10次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用20次锁定</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中累计使用30次锁定</t>
+      <t>8个西瓜</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除48个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除88个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除128个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除188个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中触发3次幸运时刻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,156,157,158,159,160,161,128</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130,162,163,164,165,166,167,137</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,144,145,146</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2725,115 +2752,31 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>1500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中使用3万及以上档次游戏10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在西游消消乐中使用3万及以上档次游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0次</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6888,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在水果消消乐中累计消除1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8个西瓜</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除48个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除88个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除128个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除188个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中触发3次幸运时刻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,156,157,158,159,160,161,128</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130,162,163,164,165,166,167,137</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>143,144,145,146</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>4000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3744,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3765,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3786,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3807,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3828,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3963,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4043,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4057,9 +4000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4046,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -6497,7 +6440,7 @@
         <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6699,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H94" s="41" t="s">
         <v>271</v>
@@ -6757,7 +6700,7 @@
         <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6780,13 +6723,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>308</v>
+        <v>442</v>
       </c>
       <c r="I97" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6809,13 +6752,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H98" s="41" t="s">
-        <v>309</v>
-      </c>
       <c r="I98" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6838,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>310</v>
+        <v>444</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6867,13 +6810,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H100" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I100" s="41" t="s">
         <v>311</v>
-      </c>
-      <c r="I100" s="41" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6896,13 +6839,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>312</v>
+        <v>446</v>
       </c>
       <c r="I101" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6925,13 +6868,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6954,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>306</v>
+        <v>447</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6983,13 +6926,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I104" s="41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7003,7 +6946,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -7012,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>316</v>
+        <v>450</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>240</v>
@@ -7032,19 +6975,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7058,19 +7001,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H107" s="41" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I107" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7084,19 +7027,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7110,19 +7053,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="H109" s="41" t="s">
-        <v>339</v>
-      </c>
       <c r="I109" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -7136,19 +7079,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H110" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="41" t="s">
         <v>340</v>
-      </c>
-      <c r="I110" s="41" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -7162,19 +7105,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H111" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="H111" s="42" t="s">
+      <c r="I111" s="41" t="s">
         <v>341</v>
-      </c>
-      <c r="I111" s="41" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -7188,19 +7131,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -7214,19 +7157,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -7240,19 +7183,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -7266,19 +7209,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -7292,19 +7235,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -7318,19 +7261,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -7344,7 +7287,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -7353,13 +7296,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -7373,7 +7316,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -7382,13 +7325,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -7402,7 +7345,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -7411,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -7431,19 +7374,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -7457,19 +7400,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="I122" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7483,19 +7426,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H123" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H123" s="42" t="s">
-        <v>377</v>
-      </c>
       <c r="I123" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7509,19 +7452,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H124" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I124" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="I124" s="42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7535,19 +7478,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7561,19 +7504,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7587,19 +7530,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H127" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="E127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H127" s="42" t="s">
-        <v>381</v>
-      </c>
       <c r="I127" s="42" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7613,19 +7556,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7639,19 +7582,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H129" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="E129" s="3">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="H129" s="42" t="s">
-        <v>383</v>
-      </c>
       <c r="I129" s="42" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7665,19 +7608,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7691,19 +7634,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="I131" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7717,19 +7660,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7743,19 +7686,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H133" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="I133" s="42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7769,19 +7712,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7795,19 +7738,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7821,19 +7764,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7847,19 +7790,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H137" s="42" t="s">
         <v>268</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7873,16 +7816,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I138" s="42" t="s">
         <v>240</v>
@@ -7899,19 +7842,19 @@
         <v>3</v>
       </c>
       <c r="D139" s="54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E139" s="52">
         <v>1</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H139" s="54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7925,19 +7868,19 @@
         <v>3</v>
       </c>
       <c r="D140" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="E140" s="52">
+        <v>1</v>
+      </c>
+      <c r="G140" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="E140" s="52">
-        <v>1</v>
-      </c>
-      <c r="G140" s="54" t="s">
-        <v>408</v>
-      </c>
       <c r="H140" s="54" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7951,19 +7894,19 @@
         <v>3</v>
       </c>
       <c r="D141" s="54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E141" s="52">
         <v>1</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H141" s="54" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7977,19 +7920,19 @@
         <v>3</v>
       </c>
       <c r="D142" s="54" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E142" s="52">
         <v>1</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H142" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="I142" s="54" t="s">
         <v>412</v>
-      </c>
-      <c r="I142" s="54" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8003,19 +7946,19 @@
         <v>3</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E143" s="52">
         <v>1</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H143" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="I143" s="54" t="s">
         <v>413</v>
-      </c>
-      <c r="I143" s="54" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8029,19 +7972,19 @@
         <v>3</v>
       </c>
       <c r="D144" s="54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E144" s="52">
         <v>1</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8055,19 +7998,19 @@
         <v>3</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E145" s="52">
         <v>1</v>
       </c>
       <c r="G145" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="H145" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="H145" s="54" t="s">
-        <v>415</v>
-      </c>
       <c r="I145" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8081,19 +8024,19 @@
         <v>3</v>
       </c>
       <c r="D146" s="54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E146" s="52">
         <v>1</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8107,19 +8050,19 @@
         <v>3</v>
       </c>
       <c r="D147" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E147" s="52">
         <v>1</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H147" s="54" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8133,19 +8076,19 @@
         <v>3</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E148" s="52">
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H148" s="54" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8159,19 +8102,19 @@
         <v>3</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E149" s="52">
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H149" s="54" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8185,19 +8128,19 @@
         <v>3</v>
       </c>
       <c r="D150" s="54" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E150" s="52">
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H150" s="54" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8211,19 +8154,19 @@
         <v>3</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E151" s="52">
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H151" s="54" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8237,19 +8180,19 @@
         <v>3</v>
       </c>
       <c r="D152" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E152" s="52">
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8263,19 +8206,19 @@
         <v>3</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E153" s="52">
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8289,19 +8232,19 @@
         <v>3</v>
       </c>
       <c r="D154" s="54" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E154" s="52">
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8315,19 +8258,19 @@
         <v>3</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E155" s="52">
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I155" s="54" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8341,19 +8284,19 @@
         <v>3</v>
       </c>
       <c r="D156" s="54" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E156" s="52">
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8367,16 +8310,16 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I157" s="54" t="s">
         <v>236</v>
@@ -8393,16 +8336,16 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I158" s="54" t="s">
         <v>236</v>
@@ -8419,13 +8362,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8445,19 +8388,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8414,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8440,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H162" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="H162" s="54" t="s">
-        <v>438</v>
-      </c>
       <c r="I162" s="54" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8466,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8492,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8518,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8544,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8570,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8596,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H168" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="H168" s="54" t="s">
-        <v>438</v>
-      </c>
       <c r="I168" s="54" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -1079,10 +1079,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2393,6 +2389,10 @@
   </si>
   <si>
     <t>15000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3044,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="32">
         <v>2</v>
@@ -3160,10 +3160,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3208,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>199</v>
@@ -3225,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>252</v>
-      </c>
       <c r="D14" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -3242,13 +3242,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="38" t="s">
         <v>296</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>297</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3568,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3595,8 +3595,8 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3640,7 +3640,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>49</v>
@@ -4585,7 +4585,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J31" s="22"/>
       <c r="N31" s="12"/>
@@ -4632,7 +4632,7 @@
         <v>88</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4786,7 +4786,7 @@
         <v>148</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>142</v>
@@ -5020,7 +5020,7 @@
         <v>166</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -5280,7 +5280,7 @@
         <v>185</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -5358,7 +5358,7 @@
         <v>190</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -5459,10 +5459,10 @@
         <v>222</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5488,7 +5488,7 @@
         <v>224</v>
       </c>
       <c r="I65" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5514,7 +5514,7 @@
         <v>223</v>
       </c>
       <c r="I66" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5528,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E67" s="49">
         <v>1</v>
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E68" s="49">
         <v>1</v>
@@ -5566,7 +5566,7 @@
         <v>226</v>
       </c>
       <c r="I68" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5592,7 +5592,7 @@
         <v>227</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5618,7 +5618,7 @@
         <v>228</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5644,7 +5644,7 @@
         <v>223</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5670,7 +5670,7 @@
         <v>229</v>
       </c>
       <c r="I72" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5696,7 +5696,7 @@
         <v>227</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
@@ -5722,7 +5722,7 @@
         <v>229</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5748,7 +5748,7 @@
         <v>223</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5774,7 +5774,7 @@
         <v>230</v>
       </c>
       <c r="I76" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5800,7 +5800,7 @@
         <v>231</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5826,7 +5826,7 @@
         <v>232</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5852,7 +5852,7 @@
         <v>233</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5878,7 +5878,7 @@
         <v>234</v>
       </c>
       <c r="I80" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5904,7 +5904,7 @@
         <v>230</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5930,7 +5930,7 @@
         <v>235</v>
       </c>
       <c r="I82" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5956,7 +5956,7 @@
         <v>235</v>
       </c>
       <c r="I83" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5976,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>235</v>
       </c>
       <c r="I84" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -5996,19 +5996,19 @@
         <v>1</v>
       </c>
       <c r="D85" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
+      <c r="G85" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="13">
-        <v>1</v>
-      </c>
-      <c r="G85" s="41" t="s">
+      <c r="H85" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="41" t="s">
-        <v>247</v>
-      </c>
       <c r="I85" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6022,19 +6022,19 @@
         <v>1</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E86" s="13">
         <v>1</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I86" s="41" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6048,19 +6048,19 @@
         <v>88</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E87" s="13">
         <v>1</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6074,19 +6074,19 @@
         <v>1</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I88" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6100,19 +6100,19 @@
         <v>1</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I89" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6126,19 +6126,19 @@
         <v>1</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E90" s="13">
         <v>1</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I90" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6152,19 +6152,19 @@
         <v>3</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I91" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6178,19 +6178,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I92" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6204,19 +6204,19 @@
         <v>1</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6230,19 +6230,19 @@
         <v>8</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E94" s="13">
         <v>1</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6256,19 +6256,19 @@
         <v>30</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H95" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="I95" s="41" t="s">
         <v>291</v>
-      </c>
-      <c r="I95" s="41" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6282,19 +6282,19 @@
         <v>10</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E96" s="13">
         <v>1</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I96" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6308,7 +6308,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
@@ -6317,13 +6317,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="H97" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="H97" s="41" t="s">
-        <v>397</v>
-      </c>
       <c r="I97" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6337,7 +6337,7 @@
         <v>48</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -6346,13 +6346,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="H98" s="41" t="s">
-        <v>308</v>
-      </c>
       <c r="I98" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6366,7 +6366,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -6375,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I99" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6395,7 +6395,7 @@
         <v>500</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -6404,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I100" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6424,7 +6424,7 @@
         <v>1000</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E101" s="13">
         <v>5</v>
@@ -6433,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="H101" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="H101" s="41" t="s">
-        <v>400</v>
-      </c>
       <c r="I101" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6453,7 +6453,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -6462,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I102" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6482,7 +6482,7 @@
         <v>3000</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -6491,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I103" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6511,7 +6511,7 @@
         <v>5000</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -6520,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H104" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="I104" s="41" t="s">
         <v>311</v>
-      </c>
-      <c r="I104" s="41" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6540,7 +6540,7 @@
         <v>10000</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -6549,13 +6549,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I105" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6569,19 +6569,19 @@
         <v>100000</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H106" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I106" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6595,19 +6595,19 @@
         <v>1000000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E107" s="13">
         <v>2</v>
       </c>
       <c r="G107" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H107" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="H107" s="41" t="s">
-        <v>331</v>
-      </c>
       <c r="I107" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6621,19 +6621,19 @@
         <v>5000000</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E108" s="13">
         <v>3</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H108" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I108" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6647,19 +6647,19 @@
         <v>10000000</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E109" s="13">
         <v>4</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -6673,19 +6673,19 @@
         <v>50000000</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E110" s="13">
         <v>5</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I110" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -6699,19 +6699,19 @@
         <v>100000000</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E111" s="3">
         <v>6</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I111" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -6725,19 +6725,19 @@
         <v>300000000</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E112" s="3">
         <v>7</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I112" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
@@ -6751,19 +6751,19 @@
         <v>500000000</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E113" s="3">
         <v>8</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -6777,19 +6777,19 @@
         <v>1000000000</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E114" s="3">
         <v>9</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I114" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
@@ -6803,19 +6803,19 @@
         <v>2000000000</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E115" s="3">
         <v>10</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I115" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
@@ -6829,19 +6829,19 @@
         <v>3000000000</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E116" s="3">
         <v>11</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I116" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
@@ -6855,19 +6855,19 @@
         <v>5000000000</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E117" s="3">
         <v>12</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I117" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
@@ -6881,7 +6881,7 @@
         <v>20000</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E118" s="3">
         <v>10</v>
@@ -6890,13 +6890,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H118" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I118" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -6910,7 +6910,7 @@
         <v>30000</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E119" s="3">
         <v>11</v>
@@ -6919,13 +6919,13 @@
         <v>1</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I119" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
@@ -6939,7 +6939,7 @@
         <v>50000</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E120" s="3">
         <v>12</v>
@@ -6948,13 +6948,13 @@
         <v>1</v>
       </c>
       <c r="G120" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I120" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
@@ -6968,19 +6968,19 @@
         <v>8</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
@@ -6994,19 +6994,19 @@
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
@@ -7020,19 +7020,19 @@
         <v>10</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H123" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I123" s="42" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -7046,19 +7046,19 @@
         <v>20</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E124" s="3">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H124" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I124" s="42" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -7072,19 +7072,19 @@
         <v>50</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E125" s="3">
         <v>3</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H125" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I125" s="42" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -7098,19 +7098,19 @@
         <v>100</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E126" s="3">
         <v>4</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H126" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I126" s="42" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
@@ -7124,19 +7124,19 @@
         <v>10</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H127" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I127" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
@@ -7150,19 +7150,19 @@
         <v>20</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3">
         <v>2</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H128" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I128" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
@@ -7176,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I129" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -7202,19 +7202,19 @@
         <v>8</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
@@ -7228,19 +7228,19 @@
         <v>1</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E131" s="3">
         <v>1</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -7254,19 +7254,19 @@
         <v>20</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
@@ -7280,19 +7280,19 @@
         <v>20</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E133" s="3">
         <v>1</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I133" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
@@ -7306,19 +7306,19 @@
         <v>20</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I134" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -7332,19 +7332,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I135" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
@@ -7358,19 +7358,19 @@
         <v>20</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H136" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7384,19 +7384,19 @@
         <v>1</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E137" s="3">
         <v>1</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H137" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I137" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
@@ -7410,19 +7410,19 @@
         <v>1</v>
       </c>
       <c r="D138" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E138" s="3">
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I138" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -2554,6 +2554,23 @@
   </si>
   <si>
     <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800000,160000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
     <r>
@@ -2817,23 +2834,6 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80000,160000,</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="55" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="55" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="55" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
+      <selection pane="bottomLeft" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7833,7 +7833,7 @@
         <v>381</v>
       </c>
       <c r="I136" s="42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
@@ -7911,7 +7911,7 @@
         <v>409</v>
       </c>
       <c r="I139" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7937,7 +7937,7 @@
         <v>410</v>
       </c>
       <c r="I140" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7963,7 +7963,7 @@
         <v>411</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -7989,7 +7989,7 @@
         <v>412</v>
       </c>
       <c r="I142" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8012,10 +8012,10 @@
         <v>408</v>
       </c>
       <c r="H143" s="54" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="I143" s="54" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8038,10 +8038,10 @@
         <v>408</v>
       </c>
       <c r="H144" s="54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I144" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8064,10 +8064,10 @@
         <v>408</v>
       </c>
       <c r="H145" s="54" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I145" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8090,10 +8090,10 @@
         <v>408</v>
       </c>
       <c r="H146" s="54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I146" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8116,10 +8116,10 @@
         <v>408</v>
       </c>
       <c r="H147" s="54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I147" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8139,13 +8139,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>409</v>
       </c>
       <c r="I148" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8165,13 +8165,13 @@
         <v>1</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H149" s="54" t="s">
         <v>410</v>
       </c>
       <c r="I149" s="54" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8191,13 +8191,13 @@
         <v>1</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H150" s="54" t="s">
         <v>411</v>
       </c>
       <c r="I150" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8217,13 +8217,13 @@
         <v>1</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H151" s="54" t="s">
         <v>412</v>
       </c>
       <c r="I151" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8243,13 +8243,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I152" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8269,13 +8269,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I153" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8295,13 +8295,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I154" s="54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8321,13 +8321,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="H155" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="I155" s="54" t="s">
         <v>420</v>
-      </c>
-      <c r="H155" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="I155" s="54" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8347,13 +8347,13 @@
         <v>1</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8367,13 +8367,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="54" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E157" s="52">
         <v>1</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>377</v>
@@ -8393,13 +8393,13 @@
         <v>10</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E158" s="52">
         <v>2</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H158" s="54" t="s">
         <v>378</v>
@@ -8419,13 +8419,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="54" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E159" s="52">
         <v>3</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>265</v>
@@ -8445,19 +8445,19 @@
         <v>30</v>
       </c>
       <c r="D160" s="54" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E160" s="52">
         <v>4</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H160" s="54" t="s">
         <v>380</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8471,19 +8471,19 @@
         <v>10</v>
       </c>
       <c r="D161" s="54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E161" s="52">
         <v>1</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I161" s="54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8497,19 +8497,19 @@
         <v>20</v>
       </c>
       <c r="D162" s="54" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E162" s="52">
         <v>2</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I162" s="54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8523,19 +8523,19 @@
         <v>18</v>
       </c>
       <c r="D163" s="54" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E163" s="52">
         <v>1</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H163" s="54" t="s">
         <v>377</v>
       </c>
       <c r="I163" s="54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8549,19 +8549,19 @@
         <v>48</v>
       </c>
       <c r="D164" s="54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E164" s="52">
         <v>2</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H164" s="54" t="s">
         <v>378</v>
       </c>
       <c r="I164" s="54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8575,19 +8575,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E165" s="52">
         <v>3</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8601,19 +8601,19 @@
         <v>128</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E166" s="52">
         <v>4</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H166" s="54" t="s">
         <v>380</v>
       </c>
       <c r="I166" s="54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8627,19 +8627,19 @@
         <v>188</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E167" s="52">
         <v>5</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I167" s="54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.15">
@@ -8653,19 +8653,19 @@
         <v>3</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E168" s="52">
         <v>1</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I168" s="54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4619,7 +4619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9402,7 +9402,7 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="3">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="D169" s="42" t="s">
         <v>451</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="509">
   <si>
     <t>index|索引</t>
   </si>
@@ -3236,19 +3236,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_all_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>179,180,181,182</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>下载并登陆新游”捕鱼奥秘“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游“欢乐天天捕鱼”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <t>180,181,182</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3842,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4143,7 +4151,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>481</v>
@@ -4160,7 +4168,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>482</v>
@@ -4177,7 +4185,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>483</v>
@@ -4190,6 +4198,23 @@
       </c>
       <c r="E19">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4201,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4603,7 +4628,27 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>503</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4617,9 +4662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9648,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -9674,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
@@ -9700,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
@@ -9755,7 +9800,7 @@
         <v>488</v>
       </c>
       <c r="E182" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" s="42" t="s">
         <v>494</v>
@@ -9781,7 +9826,7 @@
         <v>489</v>
       </c>
       <c r="E183" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G183" s="42" t="s">
         <v>494</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -3852,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4662,9 +4662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9791,7 +9791,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="13">
-        <v>1000779</v>
+        <v>1000780</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -9800,7 +9800,7 @@
         <v>488</v>
       </c>
       <c r="E182" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
         <v>494</v>
@@ -9817,7 +9817,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="13">
-        <v>1000779</v>
+        <v>1000781</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
@@ -9826,7 +9826,7 @@
         <v>489</v>
       </c>
       <c r="E183" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
         <v>494</v>

--- a/config_debug/activity_ty_task_config.xlsx
+++ b/config_debug/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="510">
   <si>
     <t>index|索引</t>
   </si>
@@ -3257,6 +3257,10 @@
   </si>
   <si>
     <t>180,181,182</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4660,11 +4664,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U183"/>
+  <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G189" sqref="G189"/>
+      <selection pane="bottomLeft" activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4676,22 +4680,22 @@
     <col min="5" max="6" width="11.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="61.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="34.625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="28.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="86.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="26.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="27.75" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="32.25" style="3" customWidth="1"/>
-    <col min="20" max="20" width="19.375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.625" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="11" style="3"/>
+    <col min="9" max="11" width="28.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="86.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="27.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="32.25" style="3" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="25.625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -4723,40 +4727,43 @@
         <v>490</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4783,14 +4790,15 @@
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="O2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="8"/>
+      <c r="L2" s="5"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4817,16 +4825,17 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="21"/>
-      <c r="T3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="21"/>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4853,14 +4862,15 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="8"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="21"/>
-      <c r="T4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="21"/>
       <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4887,14 +4897,15 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="8"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="21"/>
-      <c r="T5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="21"/>
       <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4921,14 +4932,15 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="21"/>
-      <c r="T6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="21"/>
       <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4955,15 +4967,16 @@
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4990,8 +5003,9 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -5018,8 +5032,9 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -5046,8 +5061,9 @@
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5074,8 +5090,9 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -5102,8 +5119,9 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -5130,8 +5148,9 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5158,8 +5177,9 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5186,8 +5206,9 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5214,8 +5235,9 @@
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5242,8 +5264,9 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5270,8 +5293,9 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5298,8 +5322,9 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5326,8 +5351,9 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5354,8 +5380,9 @@
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5382,16 +5409,17 @@
         <v>99</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="15"/>
-      <c r="N22" s="2" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="15"/>
+      <c r="O22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5418,16 +5446,17 @@
         <v>99</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="15"/>
-      <c r="N23" s="2" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="15"/>
+      <c r="O23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5454,16 +5483,17 @@
         <v>99</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="15"/>
-      <c r="N24" s="12" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="15"/>
+      <c r="O24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5490,15 +5520,16 @@
         <v>99</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="15"/>
-      <c r="N25" s="2" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="15"/>
+      <c r="O25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5525,15 +5556,16 @@
         <v>99</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="15"/>
-      <c r="N26" s="2" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="15"/>
+      <c r="O26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5560,15 +5592,16 @@
         <v>99</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="15"/>
-      <c r="N27" s="2" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="15"/>
+      <c r="O27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5595,15 +5628,16 @@
         <v>99</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="22"/>
-      <c r="N28" s="2" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="22"/>
+      <c r="O28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5630,9 +5664,10 @@
         <v>99</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K29" s="5"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5659,9 +5694,10 @@
         <v>99</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K30" s="5"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5688,11 +5724,12 @@
         <v>275</v>
       </c>
       <c r="J31" s="15"/>
-      <c r="K31" s="22"/>
-      <c r="O31" s="12"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="15"/>
+      <c r="L31" s="22"/>
+      <c r="P31" s="12"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5719,11 +5756,12 @@
         <v>79</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="22"/>
-      <c r="O32" s="12"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="5"/>
+      <c r="L32" s="22"/>
+      <c r="P32" s="12"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5750,10 +5788,11 @@
         <v>79</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="22"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="5"/>
+      <c r="L33" s="22"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5780,9 +5819,10 @@
         <v>79</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="5"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5809,9 +5849,10 @@
         <v>79</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="5"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -5838,9 +5879,10 @@
         <v>79</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="5"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -5867,9 +5909,10 @@
         <v>79</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K37" s="5"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -5896,8 +5939,9 @@
         <v>273</v>
       </c>
       <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -5923,8 +5967,9 @@
         <v>79</v>
       </c>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -5950,8 +5995,9 @@
         <v>79</v>
       </c>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -5977,8 +6023,9 @@
         <v>99</v>
       </c>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -6004,8 +6051,9 @@
         <v>79</v>
       </c>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -6031,8 +6079,9 @@
         <v>79</v>
       </c>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -6058,8 +6107,9 @@
         <v>99</v>
       </c>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -6085,8 +6135,9 @@
         <v>79</v>
       </c>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -6112,8 +6163,9 @@
         <v>79</v>
       </c>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -6139,8 +6191,9 @@
         <v>247</v>
       </c>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -6166,8 +6219,9 @@
         <v>79</v>
       </c>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -6193,8 +6247,9 @@
         <v>79</v>
       </c>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -6220,8 +6275,9 @@
         <v>99</v>
       </c>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -6247,8 +6303,9 @@
         <v>79</v>
       </c>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -6274,8 +6331,9 @@
         <v>79</v>
       </c>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -6301,8 +6359,9 @@
         <v>99</v>
       </c>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -6328,8 +6387,9 @@
         <v>79</v>
       </c>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -6355,8 +6415,9 @@
         <v>99</v>
       </c>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -6382,8 +6443,9 @@
         <v>79</v>
       </c>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -6409,8 +6471,9 @@
         <v>240</v>
       </c>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -6436,8 +6499,9 @@
         <v>79</v>
       </c>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -6463,8 +6527,9 @@
         <v>99</v>
       </c>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -6490,8 +6555,9 @@
         <v>239</v>
       </c>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="40">
         <v>60</v>
       </c>
@@ -6517,8 +6583,9 @@
         <v>67</v>
       </c>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="40">
         <v>61</v>
       </c>
@@ -6544,8 +6611,9 @@
         <v>67</v>
       </c>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="40">
         <v>62</v>
       </c>
@@ -6571,8 +6639,9 @@
         <v>236</v>
       </c>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="48">
         <v>63</v>
       </c>
@@ -6598,8 +6667,9 @@
         <v>241</v>
       </c>
       <c r="J64" s="50"/>
-    </row>
-    <row r="65" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K64" s="50"/>
+    </row>
+    <row r="65" spans="1:11" s="49" customFormat=